--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1997530.767767205</v>
+        <v>1942577.087832877</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406552.3566478979</v>
+        <v>406552.3566478977</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7191838.380359074</v>
+        <v>7191838.380359073</v>
       </c>
     </row>
     <row r="11">
@@ -1211,56 +1211,56 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="C9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="E9" t="n">
+      <c r="R9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.6061039573488</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.8125725581389679</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0354178143481</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2993563097647</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>71.22309452161387</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8674546474282</v>
       </c>
       <c r="U12" t="n">
-        <v>92.90534178071505</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.707355532765384</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4056422869967</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>122.9230607696898</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213475239211</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>155.3911279740386</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4860734183779</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>96.16197434178595</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0354178143481</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -1703,10 +1703,10 @@
         <v>147.9746469964569</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2993563097647</v>
+        <v>41.30888476190443</v>
       </c>
       <c r="I15" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.91489701287891</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>22.05007633242262</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>129.2734346146837</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>168.0552684420028</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.75844057612165</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.16462019356796</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4056422869967</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>74.72025103123585</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4860734183779</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>216.1664576277481</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0354178143481</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>81.88866395609196</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.667521631830729</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>33.65205643688612</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.91489701287892</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>177.2891688636465</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8674546474282</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>76.32521777018449</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4056422869967</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9230607696896</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.0034852865018</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>341.3907074462176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>197.6061421491663</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -2174,7 +2174,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>108.1258937479468</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>177.2891688636465</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>138.7580508348181</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>16.72567962601464</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.14007625443175</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>224.1886268022546</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>101.3005032842882</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H23" t="n">
-        <v>54.24728188984543</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>104.4860734183779</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1664576277481</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0354178143481</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>25.63599126199311</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -2411,13 +2411,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.2891688636465</v>
       </c>
       <c r="T24" t="n">
         <v>211.8674546474282</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>128.5302576528528</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.18743024251788</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>13.21917058752893</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>222.2250251178428</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.6010510592112</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4860734183779</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1664576277481</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0354178143481</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>177.2891688636465</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8674546474282</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1774143996406</v>
+        <v>8.29044683601342</v>
       </c>
       <c r="V27" t="n">
-        <v>82.82552602909372</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>52.21968787223639</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213475239211</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>8.707355532765229</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>57.89528811279587</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>104.4860734183779</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T29" t="n">
         <v>216.1664576277481</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>79.43180607590129</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>161.6714359885417</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2993563097647</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.91489701287892</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.2891688636465</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8674546474282</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1774143996406</v>
+        <v>63.0944416338054</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.32521777018448</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0034852865018</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7.017995967350988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>168.4941328869871</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4860734183779</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>93.95177417077871</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0354178143481</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3113,22 +3113,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>39.58693290024749</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2993563097647</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.91489701287892</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.2891688636465</v>
+        <v>144.7032785438315</v>
       </c>
       <c r="T33" t="n">
         <v>211.8674546474282</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>80.18743024251786</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1886268022546</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>73.14007625443172</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>86.69587443893523</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>25.20861537378017</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4860734183779</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1664576277481</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3350,22 +3350,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>111.6215861059579</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.91489701287892</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>157.4661887948119</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>130.8715220847139</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.017995967350981</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T38" t="n">
-        <v>198.6833591358058</v>
+        <v>65.31654401091005</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.667521631830729</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>38.13753283861855</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2993563097647</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.85390945085652</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.91489701287892</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.2891688636465</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8674546474282</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.8715220847139</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>80.18743024251788</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1664576277481</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>160.0082192245168</v>
       </c>
       <c r="V41" t="n">
-        <v>54.975536860558</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>2.667521631830729</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2993563097647</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.26412215809087</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>211.8674546474282</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.2434448790775</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>160.0852581776089</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.40924764844377</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
@@ -3994,10 +3994,10 @@
         <v>417.3991269838773</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>128.7994486005347</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>97.8026325579748</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>47.35254561336744</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.2891688636465</v>
       </c>
       <c r="T45" t="n">
-        <v>192.4754955568147</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0034852865018</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213475239211</v>
+        <v>76.32521777018449</v>
       </c>
       <c r="V46" t="n">
-        <v>8.707355532765222</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4837,13 +4837,13 @@
         <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
         <v>6.719070557086891</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C9" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E9" t="n">
         <v>0.2559399712010781</v>
@@ -4892,43 +4892,43 @@
         <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.102302681225188</v>
       </c>
     </row>
     <row r="10">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1574.060172895417</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.060172895417</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="D11" t="n">
-        <v>1574.060172895417</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.828948590734</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="F11" t="n">
-        <v>791.556979257387</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="G11" t="n">
-        <v>369.9416994756928</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="H11" t="n">
-        <v>34.30152879038003</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="I11" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J11" t="n">
-        <v>79.20358236976017</v>
+        <v>79.2035823697602</v>
       </c>
       <c r="K11" t="n">
         <v>253.7651866178232</v>
@@ -5065,28 +5065,28 @@
         <v>1715.076439519002</v>
       </c>
       <c r="R11" t="n">
-        <v>1715.076439519002</v>
+        <v>1714.255659157245</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.076439519002</v>
+        <v>1517.564008331792</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.076439519002</v>
+        <v>1517.564008331792</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.076439519002</v>
+        <v>1265.002980236491</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.076439519002</v>
+        <v>940.8819866918932</v>
       </c>
       <c r="W11" t="n">
-        <v>1715.076439519002</v>
+        <v>599.5724272719267</v>
       </c>
       <c r="X11" t="n">
-        <v>1715.076439519002</v>
+        <v>599.5724272719267</v>
       </c>
       <c r="Y11" t="n">
-        <v>1715.076439519002</v>
+        <v>599.5724272719267</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>397.2770069360018</v>
+        <v>725.0476787622283</v>
       </c>
       <c r="C12" t="n">
-        <v>207.8647326689656</v>
+        <v>535.635404495192</v>
       </c>
       <c r="D12" t="n">
-        <v>207.8647326689656</v>
+        <v>535.635404495192</v>
       </c>
       <c r="E12" t="n">
-        <v>34.30152879038003</v>
+        <v>535.635404495192</v>
       </c>
       <c r="F12" t="n">
-        <v>34.30152879038003</v>
+        <v>375.2076882124361</v>
       </c>
       <c r="G12" t="n">
-        <v>34.30152879038003</v>
+        <v>225.7383478119746</v>
       </c>
       <c r="H12" t="n">
-        <v>34.30152879038003</v>
+        <v>106.2440485091819</v>
       </c>
       <c r="I12" t="n">
         <v>34.30152879038003</v>
@@ -5150,22 +5150,22 @@
         <v>1627.283614253467</v>
       </c>
       <c r="T12" t="n">
-        <v>1627.283614253467</v>
+        <v>1413.27608430657</v>
       </c>
       <c r="U12" t="n">
-        <v>1533.439834676988</v>
+        <v>1413.27608430657</v>
       </c>
       <c r="V12" t="n">
-        <v>1290.360116580622</v>
+        <v>1170.196366210204</v>
       </c>
       <c r="W12" t="n">
-        <v>1020.961547310913</v>
+        <v>1170.196366210204</v>
       </c>
       <c r="X12" t="n">
-        <v>801.4535529276093</v>
+        <v>950.6883718269007</v>
       </c>
       <c r="Y12" t="n">
-        <v>575.8128598629369</v>
+        <v>725.0476787622283</v>
       </c>
     </row>
     <row r="13">
@@ -5223,28 +5223,28 @@
         <v>334.6335520799623</v>
       </c>
       <c r="R13" t="n">
-        <v>158.4662366385515</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="S13" t="n">
-        <v>34.30152879038003</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="T13" t="n">
-        <v>34.30152879038003</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="U13" t="n">
-        <v>34.30152879038003</v>
+        <v>43.09683740933497</v>
       </c>
       <c r="V13" t="n">
-        <v>34.30152879038003</v>
+        <v>43.09683740933497</v>
       </c>
       <c r="W13" t="n">
-        <v>34.30152879038003</v>
+        <v>43.09683740933497</v>
       </c>
       <c r="X13" t="n">
-        <v>34.30152879038003</v>
+        <v>43.09683740933497</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.30152879038003</v>
+        <v>43.09683740933497</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.30152879038003</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="C14" t="n">
-        <v>34.30152879038003</v>
+        <v>1361.333512871346</v>
       </c>
       <c r="D14" t="n">
-        <v>34.30152879038003</v>
+        <v>1020.149513232733</v>
       </c>
       <c r="E14" t="n">
-        <v>34.30152879038003</v>
+        <v>1020.149513232733</v>
       </c>
       <c r="F14" t="n">
-        <v>34.30152879038003</v>
+        <v>612.877543899386</v>
       </c>
       <c r="G14" t="n">
-        <v>34.30152879038003</v>
+        <v>191.2622641176917</v>
       </c>
       <c r="H14" t="n">
-        <v>34.30152879038003</v>
+        <v>191.2622641176917</v>
       </c>
       <c r="I14" t="n">
         <v>34.30152879038003</v>
@@ -5281,13 +5281,13 @@
         <v>79.20358236976017</v>
       </c>
       <c r="K14" t="n">
-        <v>253.7651866178235</v>
+        <v>253.7651866178232</v>
       </c>
       <c r="L14" t="n">
-        <v>525.3073549105768</v>
+        <v>525.3073549105766</v>
       </c>
       <c r="M14" t="n">
-        <v>856.3262973952404</v>
+        <v>856.3262973952402</v>
       </c>
       <c r="N14" t="n">
         <v>1185.859036421961</v>
@@ -5302,28 +5302,28 @@
         <v>1715.076439519002</v>
       </c>
       <c r="R14" t="n">
-        <v>1609.53495121761</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="S14" t="n">
-        <v>1412.843300392157</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="T14" t="n">
-        <v>1315.709992976211</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="U14" t="n">
-        <v>1063.14896488091</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="V14" t="n">
-        <v>739.0279713363124</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="W14" t="n">
-        <v>397.7184119163458</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="X14" t="n">
-        <v>34.30152879038003</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.30152879038003</v>
+        <v>1715.076439519002</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.119094767906</v>
+        <v>720.2680518152972</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7068205008698</v>
+        <v>720.2680518152972</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9267042619015</v>
+        <v>559.4879355763289</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3635003833159</v>
+        <v>385.9247316977434</v>
       </c>
       <c r="F15" t="n">
-        <v>384.93578410056</v>
+        <v>225.4970154149875</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4664437000984</v>
+        <v>76.02767501452593</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I15" t="n">
         <v>34.30152879038003</v>
@@ -5360,10 +5360,10 @@
         <v>34.30152879038003</v>
       </c>
       <c r="K15" t="n">
-        <v>195.3527900213653</v>
+        <v>112.0212081750217</v>
       </c>
       <c r="L15" t="n">
-        <v>478.1926280411148</v>
+        <v>394.8610461947713</v>
       </c>
       <c r="M15" t="n">
         <v>769.6764606879749</v>
@@ -5381,28 +5381,28 @@
         <v>1715.076439519002</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.076439519002</v>
+        <v>1627.283614253467</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.076439519002</v>
+        <v>1627.283614253467</v>
       </c>
       <c r="T15" t="n">
-        <v>1715.076439519002</v>
+        <v>1627.283614253467</v>
       </c>
       <c r="U15" t="n">
-        <v>1715.076439519002</v>
+        <v>1387.710468395245</v>
       </c>
       <c r="V15" t="n">
-        <v>1715.076439519002</v>
+        <v>1387.710468395245</v>
       </c>
       <c r="W15" t="n">
-        <v>1692.803635142817</v>
+        <v>1118.311899125536</v>
       </c>
       <c r="X15" t="n">
-        <v>1473.295640759514</v>
+        <v>898.8039047422324</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.654947694841</v>
+        <v>898.8039047422324</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.5625798773716</v>
+        <v>204.0543251964435</v>
       </c>
       <c r="C16" t="n">
-        <v>84.5625798773716</v>
+        <v>204.0543251964435</v>
       </c>
       <c r="D16" t="n">
-        <v>84.5625798773716</v>
+        <v>204.0543251964435</v>
       </c>
       <c r="E16" t="n">
-        <v>84.5625798773716</v>
+        <v>204.0543251964435</v>
       </c>
       <c r="F16" t="n">
-        <v>84.5625798773716</v>
+        <v>204.0543251964435</v>
       </c>
       <c r="G16" t="n">
-        <v>84.5625798773716</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H16" t="n">
-        <v>84.5625798773716</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I16" t="n">
-        <v>84.5625798773716</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="J16" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="K16" t="n">
-        <v>42.18800437449358</v>
+        <v>42.18800437449359</v>
       </c>
       <c r="L16" t="n">
         <v>105.3672238120315</v>
       </c>
       <c r="M16" t="n">
-        <v>180.5767419780442</v>
+        <v>180.5767419780443</v>
       </c>
       <c r="N16" t="n">
-        <v>262.0140821631708</v>
+        <v>262.0140821631709</v>
       </c>
       <c r="O16" t="n">
-        <v>315.2370004853312</v>
+        <v>315.2370004853314</v>
       </c>
       <c r="P16" t="n">
-        <v>334.6335520799622</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.7298953187824</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="R16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="S16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="T16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="U16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="V16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="W16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="X16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.5625798773716</v>
+        <v>334.6335520799623</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>109.7765298320324</v>
+        <v>1050.593777015419</v>
       </c>
       <c r="C17" t="n">
-        <v>109.7765298320324</v>
+        <v>1050.593777015419</v>
       </c>
       <c r="D17" t="n">
-        <v>109.7765298320324</v>
+        <v>1050.593777015419</v>
       </c>
       <c r="E17" t="n">
-        <v>109.7765298320324</v>
+        <v>1050.593777015419</v>
       </c>
       <c r="F17" t="n">
-        <v>34.30152879038003</v>
+        <v>643.3218076820721</v>
       </c>
       <c r="G17" t="n">
-        <v>34.30152879038003</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="H17" t="n">
-        <v>34.30152879038003</v>
+        <v>221.7065279003778</v>
       </c>
       <c r="I17" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J17" t="n">
-        <v>79.20358236976017</v>
+        <v>79.20358236975994</v>
       </c>
       <c r="K17" t="n">
-        <v>253.7651866178232</v>
+        <v>253.765186617823</v>
       </c>
       <c r="L17" t="n">
-        <v>525.3073549105764</v>
+        <v>525.3073549105762</v>
       </c>
       <c r="M17" t="n">
-        <v>856.32629739524</v>
+        <v>856.3262973952399</v>
       </c>
       <c r="N17" t="n">
         <v>1185.859036421961</v>
@@ -5533,34 +5533,34 @@
         <v>1460.118098688764</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.044290510416</v>
+        <v>1650.044290510417</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.076439519001</v>
       </c>
       <c r="R17" t="n">
-        <v>1609.534951217609</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="S17" t="n">
-        <v>1609.534951217609</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="T17" t="n">
-        <v>1391.184994017864</v>
+        <v>1496.726482319256</v>
       </c>
       <c r="U17" t="n">
-        <v>1138.623965922563</v>
+        <v>1496.726482319256</v>
       </c>
       <c r="V17" t="n">
-        <v>814.5029723779647</v>
+        <v>1496.726482319256</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1934129579982</v>
+        <v>1414.010660141385</v>
       </c>
       <c r="X17" t="n">
-        <v>109.7765298320324</v>
+        <v>1050.593777015419</v>
       </c>
       <c r="Y17" t="n">
-        <v>109.7765298320324</v>
+        <v>1050.593777015419</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.30152879038003</v>
+        <v>578.9136117780154</v>
       </c>
       <c r="C18" t="n">
-        <v>34.30152879038003</v>
+        <v>389.5013375109791</v>
       </c>
       <c r="D18" t="n">
-        <v>34.30152879038003</v>
+        <v>228.7212212720108</v>
       </c>
       <c r="E18" t="n">
-        <v>34.30152879038003</v>
+        <v>228.7212212720108</v>
       </c>
       <c r="F18" t="n">
-        <v>34.30152879038003</v>
+        <v>68.2935049892549</v>
       </c>
       <c r="G18" t="n">
-        <v>34.30152879038003</v>
+        <v>68.2935049892549</v>
       </c>
       <c r="H18" t="n">
-        <v>34.30152879038003</v>
+        <v>68.2935049892549</v>
       </c>
       <c r="I18" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J18" t="n">
-        <v>54.36776579841094</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K18" t="n">
-        <v>215.4190270293962</v>
+        <v>195.3527900213653</v>
       </c>
       <c r="L18" t="n">
-        <v>394.8610461947708</v>
+        <v>478.1926280411147</v>
       </c>
       <c r="M18" t="n">
-        <v>769.6764606879744</v>
+        <v>853.0080425343183</v>
       </c>
       <c r="N18" t="n">
-        <v>1172.832013471619</v>
+        <v>1256.163595317963</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.893499077936</v>
+        <v>1569.22508092428</v>
       </c>
       <c r="P18" t="n">
         <v>1715.076439519001</v>
@@ -5618,28 +5618,28 @@
         <v>1715.076439519001</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.283614253467</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.203645704329</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.196115757432</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="U18" t="n">
-        <v>994.6229698992091</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="V18" t="n">
-        <v>751.5432518028432</v>
+        <v>1471.996721422635</v>
       </c>
       <c r="W18" t="n">
-        <v>482.1446825331345</v>
+        <v>1202.598152152927</v>
       </c>
       <c r="X18" t="n">
-        <v>262.6366881498309</v>
+        <v>983.0901577696229</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.99599508515854</v>
+        <v>757.4494647049505</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="C19" t="n">
         <v>34.30152879038003</v>
@@ -5676,7 +5676,7 @@
         <v>34.30152879038003</v>
       </c>
       <c r="K19" t="n">
-        <v>42.18800437449357</v>
+        <v>42.18800437449356</v>
       </c>
       <c r="L19" t="n">
         <v>105.3672238120315</v>
@@ -5697,28 +5697,28 @@
         <v>334.6335520799622</v>
       </c>
       <c r="R19" t="n">
-        <v>158.4662366385514</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="S19" t="n">
-        <v>34.30152879038003</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="T19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="U19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="V19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="W19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="X19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.30152879038003</v>
+        <v>111.3977083562229</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0444554380354</v>
+        <v>754.3718515255858</v>
       </c>
       <c r="C20" t="n">
-        <v>34.30152879038002</v>
+        <v>754.3718515255858</v>
       </c>
       <c r="D20" t="n">
-        <v>34.30152879038002</v>
+        <v>754.3718515255858</v>
       </c>
       <c r="E20" t="n">
-        <v>34.30152879038002</v>
+        <v>379.1406272209028</v>
       </c>
       <c r="F20" t="n">
-        <v>34.30152879038002</v>
+        <v>379.1406272209028</v>
       </c>
       <c r="G20" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H20" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I20" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="J20" t="n">
-        <v>79.20358236976006</v>
+        <v>79.2035823697604</v>
       </c>
       <c r="K20" t="n">
-        <v>253.7651866178231</v>
+        <v>253.7651866178237</v>
       </c>
       <c r="L20" t="n">
-        <v>525.3073549105764</v>
+        <v>525.307354910577</v>
       </c>
       <c r="M20" t="n">
-        <v>856.3262973952401</v>
+        <v>856.3262973952405</v>
       </c>
       <c r="N20" t="n">
-        <v>1185.85903642196</v>
+        <v>1185.859036421961</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.118098688764</v>
+        <v>1460.118098688765</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.044290510416</v>
+        <v>1650.044290510417</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.076439519001</v>
+        <v>1518.384788693549</v>
       </c>
       <c r="T20" t="n">
-        <v>1715.076439519001</v>
+        <v>1518.384788693549</v>
       </c>
       <c r="U20" t="n">
-        <v>1715.076439519001</v>
+        <v>1518.384788693549</v>
       </c>
       <c r="V20" t="n">
-        <v>1515.474275731964</v>
+        <v>1518.384788693549</v>
       </c>
       <c r="W20" t="n">
-        <v>1515.474275731964</v>
+        <v>1518.384788693549</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.057392605998</v>
+        <v>1518.384788693549</v>
       </c>
       <c r="Y20" t="n">
-        <v>765.9103548095843</v>
+        <v>1132.237750897135</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>827.7029139506017</v>
+        <v>529.0725651906897</v>
       </c>
       <c r="C21" t="n">
-        <v>638.2906396835654</v>
+        <v>529.0725651906897</v>
       </c>
       <c r="D21" t="n">
-        <v>477.5105234445971</v>
+        <v>368.2924489517214</v>
       </c>
       <c r="E21" t="n">
-        <v>303.9473195660115</v>
+        <v>194.7292450731359</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5196032832556</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G21" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H21" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I21" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="J21" t="n">
-        <v>54.36776579841094</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0212081750209</v>
+        <v>195.3527900213653</v>
       </c>
       <c r="L21" t="n">
-        <v>394.8610461947704</v>
+        <v>478.1926280411147</v>
       </c>
       <c r="M21" t="n">
-        <v>769.676460687974</v>
+        <v>853.0080425343183</v>
       </c>
       <c r="N21" t="n">
-        <v>1172.832013471618</v>
+        <v>1256.163595317963</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.893499077936</v>
+        <v>1569.22508092428</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="S21" t="n">
-        <v>1535.996470969863</v>
+        <v>1535.996470969864</v>
       </c>
       <c r="T21" t="n">
-        <v>1535.996470969863</v>
+        <v>1395.836823661967</v>
       </c>
       <c r="U21" t="n">
-        <v>1296.42332511164</v>
+        <v>1395.836823661967</v>
       </c>
       <c r="V21" t="n">
-        <v>1053.343607015274</v>
+        <v>1152.757105565601</v>
       </c>
       <c r="W21" t="n">
-        <v>1053.343607015274</v>
+        <v>1152.757105565601</v>
       </c>
       <c r="X21" t="n">
-        <v>1053.343607015274</v>
+        <v>933.2491111822972</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.7029139506017</v>
+        <v>707.6084181176248</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="C22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="D22" t="n">
-        <v>34.30152879038002</v>
+        <v>317.7389261950989</v>
       </c>
       <c r="E22" t="n">
-        <v>34.30152879038002</v>
+        <v>174.6317128494171</v>
       </c>
       <c r="F22" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G22" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H22" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I22" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="J22" t="n">
-        <v>34.30152879038002</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K22" t="n">
         <v>42.18800437449357</v>
@@ -5934,28 +5934,28 @@
         <v>334.6335520799622</v>
       </c>
       <c r="R22" t="n">
-        <v>260.7546871764957</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="S22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="T22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="U22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="V22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="W22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="X22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.30152879038002</v>
+        <v>334.6335520799622</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.5017621325449</v>
+        <v>863.1887779054213</v>
       </c>
       <c r="C23" t="n">
-        <v>276.5017621325449</v>
+        <v>863.1887779054213</v>
       </c>
       <c r="D23" t="n">
-        <v>276.5017621325449</v>
+        <v>863.1887779054213</v>
       </c>
       <c r="E23" t="n">
-        <v>276.5017621325449</v>
+        <v>863.1887779054213</v>
       </c>
       <c r="F23" t="n">
-        <v>276.5017621325449</v>
+        <v>455.9168085720743</v>
       </c>
       <c r="G23" t="n">
-        <v>276.5017621325449</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H23" t="n">
-        <v>221.7065279003778</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I23" t="n">
         <v>34.30152879038003</v>
@@ -6001,40 +6001,40 @@
         <v>856.32629739524</v>
       </c>
       <c r="N23" t="n">
-        <v>1185.859036421961</v>
+        <v>1185.85903642196</v>
       </c>
       <c r="O23" t="n">
         <v>1460.118098688764</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.044290510416</v>
+        <v>1650.044290510417</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.076439519001</v>
       </c>
       <c r="R23" t="n">
-        <v>1609.534951217609</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="S23" t="n">
-        <v>1412.843300392156</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="T23" t="n">
-        <v>1194.493343192411</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="U23" t="n">
-        <v>941.9323150971095</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="V23" t="n">
-        <v>617.8113215525115</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="W23" t="n">
-        <v>276.5017621325449</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="X23" t="n">
-        <v>276.5017621325449</v>
+        <v>1351.659556393035</v>
       </c>
       <c r="Y23" t="n">
-        <v>276.5017621325449</v>
+        <v>965.5125185966215</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>949.6247954651134</v>
+        <v>394.1873896204013</v>
       </c>
       <c r="C24" t="n">
-        <v>760.2125211980771</v>
+        <v>368.2924489517214</v>
       </c>
       <c r="D24" t="n">
-        <v>599.4324049591088</v>
+        <v>368.2924489517214</v>
       </c>
       <c r="E24" t="n">
-        <v>425.8692010805232</v>
+        <v>194.7292450731359</v>
       </c>
       <c r="F24" t="n">
-        <v>265.4414847977673</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G24" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I24" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J24" t="n">
-        <v>54.36776579841093</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K24" t="n">
-        <v>215.4190270293962</v>
+        <v>112.0212081750216</v>
       </c>
       <c r="L24" t="n">
-        <v>498.2588650491456</v>
+        <v>394.861046194771</v>
       </c>
       <c r="M24" t="n">
-        <v>873.0742795423491</v>
+        <v>769.6764606879746</v>
       </c>
       <c r="N24" t="n">
         <v>1172.832013471619</v>
@@ -6095,25 +6095,25 @@
         <v>1715.076439519001</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.076439519001</v>
+        <v>1535.996470969863</v>
       </c>
       <c r="T24" t="n">
-        <v>1501.068909572104</v>
+        <v>1321.988941022966</v>
       </c>
       <c r="U24" t="n">
-        <v>1501.068909572104</v>
+        <v>1082.415795164743</v>
       </c>
       <c r="V24" t="n">
-        <v>1257.989191475738</v>
+        <v>839.3360770683773</v>
       </c>
       <c r="W24" t="n">
-        <v>1257.989191475738</v>
+        <v>839.3360770683773</v>
       </c>
       <c r="X24" t="n">
-        <v>1257.989191475738</v>
+        <v>619.8280826850737</v>
       </c>
       <c r="Y24" t="n">
-        <v>1128.160648392048</v>
+        <v>394.1873896204013</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>334.6335520799622</v>
+        <v>115.2989330757516</v>
       </c>
       <c r="C25" t="n">
-        <v>334.6335520799622</v>
+        <v>115.2989330757516</v>
       </c>
       <c r="D25" t="n">
-        <v>187.9844104125776</v>
+        <v>115.2989330757516</v>
       </c>
       <c r="E25" t="n">
-        <v>187.9844104125776</v>
+        <v>115.2989330757516</v>
       </c>
       <c r="F25" t="n">
-        <v>47.65422635354057</v>
+        <v>115.2989330757516</v>
       </c>
       <c r="G25" t="n">
-        <v>47.65422635354057</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H25" t="n">
-        <v>47.65422635354057</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I25" t="n">
         <v>34.30152879038003</v>
@@ -6192,7 +6192,7 @@
         <v>334.6335520799622</v>
       </c>
       <c r="Y25" t="n">
-        <v>334.6335520799622</v>
+        <v>115.2989330757516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1104.459679381332</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="C26" t="n">
-        <v>750.7167527336765</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="D26" t="n">
-        <v>409.532753095063</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="E26" t="n">
-        <v>34.30152879038003</v>
+        <v>763.3927416178798</v>
       </c>
       <c r="F26" t="n">
-        <v>34.30152879038003</v>
+        <v>356.1207722845328</v>
       </c>
       <c r="G26" t="n">
-        <v>34.30152879038003</v>
+        <v>356.1207722845328</v>
       </c>
       <c r="H26" t="n">
         <v>34.30152879038003</v>
@@ -6226,7 +6226,7 @@
         <v>34.30152879038003</v>
       </c>
       <c r="J26" t="n">
-        <v>79.20358236976006</v>
+        <v>79.20358236976014</v>
       </c>
       <c r="K26" t="n">
         <v>253.7651866178231</v>
@@ -6238,7 +6238,7 @@
         <v>856.32629739524</v>
       </c>
       <c r="N26" t="n">
-        <v>1185.859036421961</v>
+        <v>1185.85903642196</v>
       </c>
       <c r="O26" t="n">
         <v>1460.118098688764</v>
@@ -6250,28 +6250,28 @@
         <v>1715.076439519001</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.076439519001</v>
+        <v>1609.534951217609</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.076439519001</v>
+        <v>1609.534951217609</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.076439519001</v>
+        <v>1391.184994017864</v>
       </c>
       <c r="U26" t="n">
-        <v>1715.076439519001</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="V26" t="n">
-        <v>1715.076439519001</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="W26" t="n">
-        <v>1715.076439519001</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="X26" t="n">
-        <v>1715.076439519001</v>
+        <v>1138.623965922563</v>
       </c>
       <c r="Y26" t="n">
-        <v>1328.929401722587</v>
+        <v>1138.623965922563</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>465.812134947098</v>
+        <v>546.7463473364634</v>
       </c>
       <c r="C27" t="n">
-        <v>276.3998606800617</v>
+        <v>357.3340730694271</v>
       </c>
       <c r="D27" t="n">
-        <v>276.3998606800617</v>
+        <v>357.3340730694271</v>
       </c>
       <c r="E27" t="n">
-        <v>276.3998606800617</v>
+        <v>183.7708691908416</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9721443973058</v>
+        <v>183.7708691908416</v>
       </c>
       <c r="G27" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I27" t="n">
         <v>34.30152879038003</v>
@@ -6317,13 +6317,13 @@
         <v>873.0742795423491</v>
       </c>
       <c r="N27" t="n">
-        <v>1172.832013471619</v>
+        <v>1082.331222066816</v>
       </c>
       <c r="O27" t="n">
-        <v>1485.893499077936</v>
+        <v>1395.392707673133</v>
       </c>
       <c r="P27" t="n">
-        <v>1715.076439519001</v>
+        <v>1624.575648114199</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.076439519001</v>
@@ -6335,22 +6335,22 @@
         <v>1448.203645704329</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.196115757432</v>
+        <v>1448.203645704329</v>
       </c>
       <c r="U27" t="n">
-        <v>994.6229698992091</v>
+        <v>1439.829456981083</v>
       </c>
       <c r="V27" t="n">
-        <v>910.960822395074</v>
+        <v>1439.829456981083</v>
       </c>
       <c r="W27" t="n">
-        <v>910.960822395074</v>
+        <v>1170.430887711374</v>
       </c>
       <c r="X27" t="n">
-        <v>691.4528280117704</v>
+        <v>950.9228933280708</v>
       </c>
       <c r="Y27" t="n">
-        <v>465.812134947098</v>
+        <v>725.2822002633984</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="C28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="D28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="E28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="F28" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G28" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H28" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I28" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="J28" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K28" t="n">
-        <v>1422.630891813533</v>
+        <v>42.18800437449356</v>
       </c>
       <c r="L28" t="n">
-        <v>1485.810111251071</v>
+        <v>105.3672238120315</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.019629417083</v>
+        <v>180.5767419780442</v>
       </c>
       <c r="N28" t="n">
-        <v>1642.45696960221</v>
+        <v>262.0140821631708</v>
       </c>
       <c r="O28" t="n">
-        <v>1695.67988792437</v>
+        <v>315.2370004853312</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="T28" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="U28" t="n">
-        <v>1423.539724848374</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="W28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="X28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
       <c r="Y28" t="n">
-        <v>1414.744416229419</v>
+        <v>87.04868825728548</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1391.184994017864</v>
+        <v>409.532753095063</v>
       </c>
       <c r="C29" t="n">
-        <v>1037.442067370209</v>
+        <v>409.532753095063</v>
       </c>
       <c r="D29" t="n">
-        <v>1037.442067370209</v>
+        <v>409.532753095063</v>
       </c>
       <c r="E29" t="n">
-        <v>1037.442067370209</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F29" t="n">
-        <v>978.9619783673847</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3466985856905</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H29" t="n">
-        <v>221.7065279003778</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I29" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J29" t="n">
-        <v>79.20358236976017</v>
+        <v>79.20358236976006</v>
       </c>
       <c r="K29" t="n">
-        <v>253.7651866178235</v>
+        <v>253.7651866178231</v>
       </c>
       <c r="L29" t="n">
-        <v>525.3073549105767</v>
+        <v>525.3073549105764</v>
       </c>
       <c r="M29" t="n">
-        <v>856.3262973952405</v>
+        <v>856.32629739524</v>
       </c>
       <c r="N29" t="n">
         <v>1185.859036421961</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.118098688765</v>
+        <v>1460.118098688764</v>
       </c>
       <c r="P29" t="n">
         <v>1650.044290510417</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.076439519002</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="R29" t="n">
-        <v>1609.53495121761</v>
+        <v>1609.534951217609</v>
       </c>
       <c r="S29" t="n">
-        <v>1609.53495121761</v>
+        <v>1412.843300392156</v>
       </c>
       <c r="T29" t="n">
-        <v>1391.184994017864</v>
+        <v>1194.493343192411</v>
       </c>
       <c r="U29" t="n">
-        <v>1391.184994017864</v>
+        <v>1194.493343192411</v>
       </c>
       <c r="V29" t="n">
-        <v>1391.184994017864</v>
+        <v>1194.493343192411</v>
       </c>
       <c r="W29" t="n">
-        <v>1391.184994017864</v>
+        <v>853.1837837724443</v>
       </c>
       <c r="X29" t="n">
-        <v>1391.184994017864</v>
+        <v>489.7669006464785</v>
       </c>
       <c r="Y29" t="n">
-        <v>1391.184994017864</v>
+        <v>409.532753095063</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1069.119094767906</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="C30" t="n">
-        <v>879.7068205008698</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="D30" t="n">
-        <v>718.9267042619015</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3635003833159</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F30" t="n">
-        <v>384.93578410056</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4664437000984</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I30" t="n">
         <v>34.30152879038003</v>
@@ -6545,49 +6545,49 @@
         <v>34.30152879038003</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0212081750218</v>
+        <v>195.3527900213653</v>
       </c>
       <c r="L30" t="n">
-        <v>394.8610461947713</v>
+        <v>478.1926280411147</v>
       </c>
       <c r="M30" t="n">
-        <v>769.6764606879749</v>
+        <v>853.0080425343183</v>
       </c>
       <c r="N30" t="n">
-        <v>1172.832013471619</v>
+        <v>1256.163595317963</v>
       </c>
       <c r="O30" t="n">
-        <v>1485.893499077936</v>
+        <v>1569.22508092428</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.076439519002</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.076439519002</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="R30" t="n">
-        <v>1715.076439519002</v>
+        <v>1627.283614253467</v>
       </c>
       <c r="S30" t="n">
-        <v>1715.076439519002</v>
+        <v>1448.203645704329</v>
       </c>
       <c r="T30" t="n">
-        <v>1715.076439519002</v>
+        <v>1234.196115757432</v>
       </c>
       <c r="U30" t="n">
-        <v>1475.503293660779</v>
+        <v>1170.464356531366</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.423575564413</v>
+        <v>927.3846384349998</v>
       </c>
       <c r="W30" t="n">
-        <v>1232.423575564413</v>
+        <v>657.9860691652912</v>
       </c>
       <c r="X30" t="n">
-        <v>1232.423575564413</v>
+        <v>438.4780747819875</v>
       </c>
       <c r="Y30" t="n">
-        <v>1232.423575564413</v>
+        <v>212.8373817173151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.3977083562229</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="C31" t="n">
-        <v>111.3977083562229</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="D31" t="n">
-        <v>111.3977083562229</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="E31" t="n">
         <v>34.30152879038003</v>
@@ -6624,7 +6624,7 @@
         <v>34.30152879038003</v>
       </c>
       <c r="K31" t="n">
-        <v>42.18800437449358</v>
+        <v>42.18800437449356</v>
       </c>
       <c r="L31" t="n">
         <v>105.3672238120315</v>
@@ -6651,22 +6651,22 @@
         <v>334.6335520799622</v>
       </c>
       <c r="T31" t="n">
-        <v>111.3977083562229</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="U31" t="n">
-        <v>111.3977083562229</v>
+        <v>327.5446672644561</v>
       </c>
       <c r="V31" t="n">
-        <v>111.3977083562229</v>
+        <v>327.5446672644561</v>
       </c>
       <c r="W31" t="n">
-        <v>111.3977083562229</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="X31" t="n">
-        <v>111.3977083562229</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.3977083562229</v>
+        <v>34.30152879038003</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>557.3466985856905</v>
+        <v>965.5125185966219</v>
       </c>
       <c r="C32" t="n">
-        <v>557.3466985856905</v>
+        <v>611.7695919489665</v>
       </c>
       <c r="D32" t="n">
-        <v>557.3466985856905</v>
+        <v>611.7695919489665</v>
       </c>
       <c r="E32" t="n">
-        <v>557.3466985856905</v>
+        <v>441.573498123727</v>
       </c>
       <c r="F32" t="n">
-        <v>557.3466985856905</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3466985856905</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H32" t="n">
-        <v>221.7065279003778</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I32" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J32" t="n">
-        <v>79.20358236976017</v>
+        <v>79.2035823697604</v>
       </c>
       <c r="K32" t="n">
-        <v>253.7651866178232</v>
+        <v>253.7651866178237</v>
       </c>
       <c r="L32" t="n">
-        <v>525.3073549105764</v>
+        <v>525.307354910577</v>
       </c>
       <c r="M32" t="n">
-        <v>856.3262973952401</v>
+        <v>856.3262973952404</v>
       </c>
       <c r="N32" t="n">
         <v>1185.859036421961</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.118098688764</v>
+        <v>1460.118098688765</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.044290510416</v>
+        <v>1650.044290510417</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="R32" t="n">
-        <v>1609.534951217609</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="S32" t="n">
-        <v>1514.634169226924</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="T32" t="n">
-        <v>1514.634169226924</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="U32" t="n">
-        <v>1262.073141131623</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="V32" t="n">
-        <v>1262.073141131623</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="W32" t="n">
-        <v>920.7635817116563</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="X32" t="n">
-        <v>557.3466985856905</v>
+        <v>1351.659556393036</v>
       </c>
       <c r="Y32" t="n">
-        <v>557.3466985856905</v>
+        <v>965.5125185966219</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>775.1149755159055</v>
+        <v>397.2770069360018</v>
       </c>
       <c r="C33" t="n">
-        <v>585.7027012488692</v>
+        <v>207.8647326689656</v>
       </c>
       <c r="D33" t="n">
-        <v>424.9225850099009</v>
+        <v>207.8647326689656</v>
       </c>
       <c r="E33" t="n">
-        <v>424.9225850099009</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F33" t="n">
-        <v>384.93578410056</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4664437000984</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I33" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J33" t="n">
-        <v>54.36776579841094</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0212081750213</v>
+        <v>112.021208175022</v>
       </c>
       <c r="L33" t="n">
-        <v>394.8610461947708</v>
+        <v>394.8610461947715</v>
       </c>
       <c r="M33" t="n">
-        <v>769.6764606879744</v>
+        <v>769.676460687975</v>
       </c>
       <c r="N33" t="n">
         <v>1172.832013471619</v>
@@ -6797,34 +6797,34 @@
         <v>1485.893499077936</v>
       </c>
       <c r="P33" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.076439519001</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.283614253467</v>
+        <v>1715.076439519002</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.203645704329</v>
+        <v>1568.91151169695</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.196115757432</v>
+        <v>1354.903981750052</v>
       </c>
       <c r="U33" t="n">
-        <v>994.6229698992091</v>
+        <v>1354.903981750052</v>
       </c>
       <c r="V33" t="n">
-        <v>994.6229698992091</v>
+        <v>1111.824263653687</v>
       </c>
       <c r="W33" t="n">
-        <v>994.6229698992091</v>
+        <v>842.4256943839778</v>
       </c>
       <c r="X33" t="n">
-        <v>775.1149755159055</v>
+        <v>622.9177000006741</v>
       </c>
       <c r="Y33" t="n">
-        <v>775.1149755159055</v>
+        <v>397.2770069360018</v>
       </c>
     </row>
     <row r="34">
@@ -6885,25 +6885,25 @@
         <v>334.6335520799622</v>
       </c>
       <c r="S34" t="n">
-        <v>108.1803936938464</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="T34" t="n">
-        <v>108.1803936938464</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="U34" t="n">
-        <v>108.1803936938464</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="V34" t="n">
-        <v>34.30152879038003</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="W34" t="n">
-        <v>34.30152879038003</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="X34" t="n">
-        <v>34.30152879038003</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.30152879038003</v>
+        <v>115.2989330757516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1627.504849176642</v>
+        <v>467.0367459760302</v>
       </c>
       <c r="C35" t="n">
-        <v>1273.761922528987</v>
+        <v>467.0367459760302</v>
       </c>
       <c r="D35" t="n">
-        <v>932.5779228903735</v>
+        <v>467.0367459760302</v>
       </c>
       <c r="E35" t="n">
-        <v>557.3466985856905</v>
+        <v>441.573498123727</v>
       </c>
       <c r="F35" t="n">
-        <v>557.3466985856905</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G35" t="n">
-        <v>557.3466985856905</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H35" t="n">
-        <v>221.7065279003778</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I35" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J35" t="n">
-        <v>79.20358236976006</v>
+        <v>79.20358236976014</v>
       </c>
       <c r="K35" t="n">
         <v>253.7651866178231</v>
@@ -6946,7 +6946,7 @@
         <v>525.3073549105764</v>
       </c>
       <c r="M35" t="n">
-        <v>856.3262973952401</v>
+        <v>856.32629739524</v>
       </c>
       <c r="N35" t="n">
         <v>1185.859036421961</v>
@@ -6955,34 +6955,34 @@
         <v>1460.118098688764</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.044290510416</v>
+        <v>1650.044290510417</v>
       </c>
       <c r="Q35" t="n">
         <v>1715.076439519001</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.076439519001</v>
+        <v>1609.534951217609</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.076439519001</v>
+        <v>1412.843300392156</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.076439519001</v>
+        <v>1194.493343192411</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.076439519001</v>
+        <v>1194.493343192411</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.076439519001</v>
+        <v>1194.493343192411</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.076439519001</v>
+        <v>853.1837837724443</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.076439519001</v>
+        <v>853.1837837724443</v>
       </c>
       <c r="Y35" t="n">
-        <v>1715.076439519001</v>
+        <v>467.0367459760302</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>578.9136117780154</v>
+        <v>557.7047232187577</v>
       </c>
       <c r="C36" t="n">
-        <v>389.5013375109791</v>
+        <v>368.2924489517214</v>
       </c>
       <c r="D36" t="n">
-        <v>228.7212212720108</v>
+        <v>368.2924489517214</v>
       </c>
       <c r="E36" t="n">
-        <v>228.7212212720108</v>
+        <v>194.7292450731359</v>
       </c>
       <c r="F36" t="n">
-        <v>228.7212212720108</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G36" t="n">
-        <v>228.7212212720108</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I36" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J36" t="n">
-        <v>54.36776579841094</v>
+        <v>54.36776579841093</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0212081750213</v>
+        <v>215.4190270293962</v>
       </c>
       <c r="L36" t="n">
-        <v>394.8610461947708</v>
+        <v>498.2588650491456</v>
       </c>
       <c r="M36" t="n">
-        <v>769.6764606879744</v>
+        <v>873.0742795423491</v>
       </c>
       <c r="N36" t="n">
-        <v>1172.832013471619</v>
+        <v>1082.331222066816</v>
       </c>
       <c r="O36" t="n">
-        <v>1485.893499077936</v>
+        <v>1395.392707673133</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.076439519001</v>
+        <v>1624.575648114199</v>
       </c>
       <c r="Q36" t="n">
         <v>1715.076439519001</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.076439519001</v>
+        <v>1627.283614253467</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.076439519001</v>
+        <v>1468.226857895071</v>
       </c>
       <c r="T36" t="n">
-        <v>1715.076439519001</v>
+        <v>1468.226857895071</v>
       </c>
       <c r="U36" t="n">
-        <v>1715.076439519001</v>
+        <v>1468.226857895071</v>
       </c>
       <c r="V36" t="n">
-        <v>1471.996721422635</v>
+        <v>1225.147139798705</v>
       </c>
       <c r="W36" t="n">
-        <v>1202.598152152927</v>
+        <v>955.7485705289964</v>
       </c>
       <c r="X36" t="n">
-        <v>983.0901577696229</v>
+        <v>736.2405761456928</v>
       </c>
       <c r="Y36" t="n">
-        <v>757.4494647049505</v>
+        <v>736.2405761456928</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.39041360588607</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="C37" t="n">
-        <v>41.39041360588607</v>
+        <v>166.4949854416062</v>
       </c>
       <c r="D37" t="n">
-        <v>41.39041360588607</v>
+        <v>166.4949854416062</v>
       </c>
       <c r="E37" t="n">
-        <v>41.39041360588607</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F37" t="n">
-        <v>41.39041360588607</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G37" t="n">
-        <v>41.39041360588607</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H37" t="n">
-        <v>41.39041360588607</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I37" t="n">
         <v>34.30152879038003</v>
@@ -7098,7 +7098,7 @@
         <v>34.30152879038003</v>
       </c>
       <c r="K37" t="n">
-        <v>42.18800437449357</v>
+        <v>42.18800437449356</v>
       </c>
       <c r="L37" t="n">
         <v>105.3672238120315</v>
@@ -7134,13 +7134,13 @@
         <v>334.6335520799622</v>
       </c>
       <c r="W37" t="n">
-        <v>41.39041360588607</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="X37" t="n">
-        <v>41.39041360588607</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.39041360588607</v>
+        <v>334.6335520799622</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>809.6597352197297</v>
+        <v>711.1256991143063</v>
       </c>
       <c r="C38" t="n">
-        <v>455.9168085720743</v>
+        <v>711.1256991143063</v>
       </c>
       <c r="D38" t="n">
-        <v>455.9168085720743</v>
+        <v>369.9416994756928</v>
       </c>
       <c r="E38" t="n">
-        <v>455.9168085720743</v>
+        <v>369.9416994756928</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9168085720743</v>
+        <v>369.9416994756928</v>
       </c>
       <c r="G38" t="n">
-        <v>34.30152879038003</v>
+        <v>369.9416994756928</v>
       </c>
       <c r="H38" t="n">
         <v>34.30152879038003</v>
@@ -7174,25 +7174,25 @@
         <v>34.30152879038003</v>
       </c>
       <c r="J38" t="n">
-        <v>79.20358236976014</v>
+        <v>79.20358236975972</v>
       </c>
       <c r="K38" t="n">
-        <v>253.7651866178231</v>
+        <v>253.7651866178228</v>
       </c>
       <c r="L38" t="n">
-        <v>525.3073549105764</v>
+        <v>525.3073549105761</v>
       </c>
       <c r="M38" t="n">
-        <v>856.32629739524</v>
+        <v>856.3262973952397</v>
       </c>
       <c r="N38" t="n">
-        <v>1185.859036421961</v>
+        <v>1185.85903642196</v>
       </c>
       <c r="O38" t="n">
         <v>1460.118098688764</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.044290510416</v>
+        <v>1650.044290510417</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.076439519001</v>
@@ -7201,25 +7201,25 @@
         <v>1715.076439519001</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.076439519001</v>
+        <v>1518.384788693548</v>
       </c>
       <c r="T38" t="n">
-        <v>1514.386177765662</v>
+        <v>1452.408481611821</v>
       </c>
       <c r="U38" t="n">
-        <v>1514.386177765662</v>
+        <v>1452.408481611821</v>
       </c>
       <c r="V38" t="n">
-        <v>1514.386177765662</v>
+        <v>1452.408481611821</v>
       </c>
       <c r="W38" t="n">
-        <v>1173.076618345695</v>
+        <v>1452.408481611821</v>
       </c>
       <c r="X38" t="n">
-        <v>809.6597352197297</v>
+        <v>1088.991598485855</v>
       </c>
       <c r="Y38" t="n">
-        <v>809.6597352197297</v>
+        <v>1088.991598485855</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>757.4494647049505</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="C39" t="n">
-        <v>757.4494647049505</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9267042619015</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3635003833159</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F39" t="n">
-        <v>384.93578410056</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4664437000984</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9721443973058</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I39" t="n">
         <v>34.30152879038003</v>
@@ -7259,46 +7259,46 @@
         <v>195.3527900213653</v>
       </c>
       <c r="L39" t="n">
-        <v>304.3602547899684</v>
+        <v>478.1926280411147</v>
       </c>
       <c r="M39" t="n">
-        <v>679.1756692831719</v>
+        <v>853.0080425343183</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.331222066816</v>
+        <v>1256.163595317963</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.392707673133</v>
+        <v>1569.22508092428</v>
       </c>
       <c r="P39" t="n">
-        <v>1624.575648114199</v>
+        <v>1715.076439519001</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.076439519001</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.076439519001</v>
+        <v>1627.283614253467</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.076439519001</v>
+        <v>1448.203645704329</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.076439519001</v>
+        <v>1234.196115757432</v>
       </c>
       <c r="U39" t="n">
-        <v>1715.076439519001</v>
+        <v>994.6229698992091</v>
       </c>
       <c r="V39" t="n">
-        <v>1471.996721422635</v>
+        <v>751.5432518028432</v>
       </c>
       <c r="W39" t="n">
-        <v>1202.598152152927</v>
+        <v>482.1446825331345</v>
       </c>
       <c r="X39" t="n">
-        <v>983.0901577696229</v>
+        <v>262.6366881498309</v>
       </c>
       <c r="Y39" t="n">
-        <v>757.4494647049505</v>
+        <v>36.99599508515854</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.4400954287359</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="C40" t="n">
         <v>34.30152879038003</v>
@@ -7374,10 +7374,10 @@
         <v>334.6335520799622</v>
       </c>
       <c r="X40" t="n">
-        <v>334.6335520799622</v>
+        <v>253.6361477945906</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.6335520799622</v>
+        <v>34.30152879038003</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1659.545594205306</v>
+        <v>797.1008082106878</v>
       </c>
       <c r="C41" t="n">
-        <v>1305.802667557651</v>
+        <v>797.1008082106878</v>
       </c>
       <c r="D41" t="n">
-        <v>964.6186679190375</v>
+        <v>455.9168085720743</v>
       </c>
       <c r="E41" t="n">
-        <v>964.6186679190375</v>
+        <v>455.9168085720743</v>
       </c>
       <c r="F41" t="n">
-        <v>557.3466985856905</v>
+        <v>455.9168085720743</v>
       </c>
       <c r="G41" t="n">
-        <v>557.3466985856905</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H41" t="n">
-        <v>221.7065279003778</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I41" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J41" t="n">
-        <v>79.20358236975994</v>
+        <v>79.20358236976014</v>
       </c>
       <c r="K41" t="n">
-        <v>253.765186617823</v>
+        <v>253.7651866178231</v>
       </c>
       <c r="L41" t="n">
-        <v>525.3073549105762</v>
+        <v>525.3073549105764</v>
       </c>
       <c r="M41" t="n">
-        <v>856.3262973952399</v>
+        <v>856.32629739524</v>
       </c>
       <c r="N41" t="n">
         <v>1185.859036421961</v>
@@ -7429,7 +7429,7 @@
         <v>1460.118098688764</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.044290510417</v>
+        <v>1650.044290510416</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.076439519001</v>
@@ -7438,25 +7438,25 @@
         <v>1715.076439519001</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.076439519001</v>
+        <v>1518.384788693548</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.076439519001</v>
+        <v>1300.034831493803</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.076439519001</v>
+        <v>1138.410367630654</v>
       </c>
       <c r="V41" t="n">
-        <v>1659.545594205306</v>
+        <v>1138.410367630654</v>
       </c>
       <c r="W41" t="n">
-        <v>1659.545594205306</v>
+        <v>797.1008082106878</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.545594205306</v>
+        <v>797.1008082106878</v>
       </c>
       <c r="Y41" t="n">
-        <v>1659.545594205306</v>
+        <v>797.1008082106878</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.6210004961158</v>
+        <v>36.99599508515854</v>
       </c>
       <c r="C42" t="n">
-        <v>371.2087262290795</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="D42" t="n">
-        <v>371.2087262290795</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="E42" t="n">
-        <v>371.2087262290795</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F42" t="n">
-        <v>371.2087262290795</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G42" t="n">
-        <v>221.739385828618</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2450865258253</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I42" t="n">
         <v>34.30152879038003</v>
@@ -7493,22 +7493,22 @@
         <v>54.36776579841093</v>
       </c>
       <c r="K42" t="n">
-        <v>54.36776579841093</v>
+        <v>215.4190270293962</v>
       </c>
       <c r="L42" t="n">
-        <v>337.2076038181604</v>
+        <v>498.2588650491456</v>
       </c>
       <c r="M42" t="n">
-        <v>712.0230183113639</v>
+        <v>679.1756692831719</v>
       </c>
       <c r="N42" t="n">
-        <v>1115.178571095008</v>
+        <v>1082.331222066816</v>
       </c>
       <c r="O42" t="n">
-        <v>1428.240056701325</v>
+        <v>1395.392707673133</v>
       </c>
       <c r="P42" t="n">
-        <v>1657.422997142391</v>
+        <v>1624.575648114199</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.076439519001</v>
@@ -7523,19 +7523,19 @@
         <v>1234.196115757432</v>
       </c>
       <c r="U42" t="n">
-        <v>1234.196115757432</v>
+        <v>994.6229698992091</v>
       </c>
       <c r="V42" t="n">
-        <v>1234.196115757432</v>
+        <v>751.5432518028432</v>
       </c>
       <c r="W42" t="n">
-        <v>964.7975464877233</v>
+        <v>482.1446825331345</v>
       </c>
       <c r="X42" t="n">
-        <v>964.7975464877233</v>
+        <v>262.6366881498309</v>
       </c>
       <c r="Y42" t="n">
-        <v>739.156853423051</v>
+        <v>36.99599508515854</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="C43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="D43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="E43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="F43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="G43" t="n">
-        <v>1576.446697216903</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H43" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I43" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.744416229419</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K43" t="n">
-        <v>1422.630891813533</v>
+        <v>42.18800437449356</v>
       </c>
       <c r="L43" t="n">
-        <v>1485.810111251071</v>
+        <v>105.3672238120315</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.019629417083</v>
+        <v>180.5767419780442</v>
       </c>
       <c r="N43" t="n">
-        <v>1642.45696960221</v>
+        <v>262.0140821631708</v>
       </c>
       <c r="O43" t="n">
-        <v>1695.67988792437</v>
+        <v>315.2370004853312</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.076439519001</v>
+        <v>334.6335520799622</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.076439519001</v>
+        <v>258.4625948593119</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.076439519001</v>
+        <v>258.4625948593119</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.076439519001</v>
+        <v>258.4625948593119</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.076439519001</v>
+        <v>258.4625948593119</v>
       </c>
       <c r="W43" t="n">
-        <v>1715.076439519001</v>
+        <v>258.4625948593119</v>
       </c>
       <c r="X43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="Y43" t="n">
-        <v>1715.076439519001</v>
+        <v>34.30152879038003</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1328.929401722587</v>
+        <v>1238.420002210104</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.929401722587</v>
+        <v>1238.420002210104</v>
       </c>
       <c r="D44" t="n">
-        <v>1328.929401722587</v>
+        <v>1238.420002210104</v>
       </c>
       <c r="E44" t="n">
-        <v>1328.929401722587</v>
+        <v>863.1887779054213</v>
       </c>
       <c r="F44" t="n">
-        <v>921.6574323892403</v>
+        <v>455.9168085720743</v>
       </c>
       <c r="G44" t="n">
-        <v>500.042152607546</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="H44" t="n">
-        <v>164.4019819222332</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="I44" t="n">
         <v>34.30152879038003</v>
       </c>
       <c r="J44" t="n">
-        <v>79.20358236976014</v>
+        <v>79.20358236975994</v>
       </c>
       <c r="K44" t="n">
-        <v>253.7651866178235</v>
+        <v>253.765186617823</v>
       </c>
       <c r="L44" t="n">
-        <v>525.3073549105767</v>
+        <v>525.3073549105762</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3262973952403</v>
+        <v>856.3262973952399</v>
       </c>
       <c r="N44" t="n">
         <v>1185.859036421961</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.118098688765</v>
+        <v>1460.118098688764</v>
       </c>
       <c r="P44" t="n">
         <v>1650.044290510417</v>
@@ -7693,7 +7693,7 @@
         <v>1715.076439519001</v>
       </c>
       <c r="Y44" t="n">
-        <v>1328.929401722587</v>
+        <v>1616.285901581653</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.4939192963845</v>
+        <v>403.3402154670208</v>
       </c>
       <c r="C45" t="n">
-        <v>195.0816450293483</v>
+        <v>355.5093613121041</v>
       </c>
       <c r="D45" t="n">
-        <v>34.30152879038003</v>
+        <v>194.7292450731359</v>
       </c>
       <c r="E45" t="n">
-        <v>34.30152879038003</v>
+        <v>194.7292450731359</v>
       </c>
       <c r="F45" t="n">
         <v>34.30152879038003</v>
@@ -7727,25 +7727,25 @@
         <v>34.30152879038003</v>
       </c>
       <c r="J45" t="n">
-        <v>54.36776579841093</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="K45" t="n">
-        <v>112.0212081750216</v>
+        <v>195.3527900213653</v>
       </c>
       <c r="L45" t="n">
-        <v>394.861046194771</v>
+        <v>478.1926280411147</v>
       </c>
       <c r="M45" t="n">
-        <v>769.6764606879746</v>
+        <v>679.1756692831719</v>
       </c>
       <c r="N45" t="n">
-        <v>1172.832013471619</v>
+        <v>1082.331222066816</v>
       </c>
       <c r="O45" t="n">
-        <v>1485.893499077936</v>
+        <v>1395.392707673133</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.076439519001</v>
+        <v>1624.575648114199</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.076439519001</v>
@@ -7754,25 +7754,25 @@
         <v>1715.076439519001</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.076439519001</v>
+        <v>1535.996470969863</v>
       </c>
       <c r="T45" t="n">
-        <v>1520.65674703737</v>
+        <v>1535.996470969863</v>
       </c>
       <c r="U45" t="n">
-        <v>1520.65674703737</v>
+        <v>1296.42332511164</v>
       </c>
       <c r="V45" t="n">
-        <v>1277.577028941004</v>
+        <v>1296.42332511164</v>
       </c>
       <c r="W45" t="n">
-        <v>1008.178459671296</v>
+        <v>1027.024755841932</v>
       </c>
       <c r="X45" t="n">
-        <v>788.6704652879921</v>
+        <v>807.5167614586283</v>
       </c>
       <c r="Y45" t="n">
-        <v>563.0297722233197</v>
+        <v>581.8760683939558</v>
       </c>
     </row>
     <row r="46">
@@ -7836,10 +7836,10 @@
         <v>334.6335520799622</v>
       </c>
       <c r="T46" t="n">
-        <v>334.6335520799622</v>
+        <v>111.3977083562229</v>
       </c>
       <c r="U46" t="n">
-        <v>43.0968374093348</v>
+        <v>34.30152879038003</v>
       </c>
       <c r="V46" t="n">
         <v>34.30152879038003</v>
@@ -8540,16 +8540,16 @@
         <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
-        <v>177.037405250518</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9005,16 +9005,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.43806462984662</v>
+        <v>61.43806462984661</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>87.20015858784431</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>217.6035663136934</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.71514163989832</v>
+        <v>44.71514163989831</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,13 +9242,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.43806462984664</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>135.8623024895962</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
@@ -9260,10 +9260,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>122.1905590823724</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.71514163989832</v>
+        <v>44.71514163989833</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.43806462984664</v>
       </c>
       <c r="K21" t="n">
-        <v>66.93123231710516</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>122.1905590823728</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.71514163989832</v>
+        <v>44.71514163989833</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.43806462984664</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.20015858784419</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>206.1716173075776</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>206.1716173075776</v>
+        <v>114.7566764946457</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.71514163989833</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.43806462984662</v>
+        <v>61.43806462984664</v>
       </c>
       <c r="K30" t="n">
-        <v>87.20015858784438</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>122.1905590823724</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.71514163989832</v>
+        <v>44.71514163989833</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.43806462984664</v>
       </c>
       <c r="K33" t="n">
-        <v>66.93123231710562</v>
+        <v>87.20015858784464</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.71514163989832</v>
+        <v>44.71514163989833</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>66.93123231710562</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>114.7566764946457</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.71514163989832</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10907,7 +10907,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
-        <v>64.71628794740279</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
@@ -10919,10 +10919,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>122.1905590823724</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.71514163989833</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>137.5801139476184</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11141,13 +11141,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>8.695431936691108</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>301.77688131</v>
+        <v>105.919699230023</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.9509420203131</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11299,7 +11299,7 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461151</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11375,16 +11375,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.43806462984664</v>
       </c>
       <c r="K45" t="n">
-        <v>66.93123231710589</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>301.77688131</v>
+        <v>126.1886255007612</v>
       </c>
       <c r="N45" t="n">
         <v>310.6138585746227</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.71514163989833</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.4811364204845</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4860734183779</v>
+        <v>103.6735008602389</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.1664576277481</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0354178143481</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2993563097647</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.85390945085652</v>
+        <v>9.630814929242646</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,16 +23390,16 @@
         <v>177.2891688636465</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8674546474282</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>144.2720726189255</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>168.9095651322027</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -23463,16 +23463,16 @@
         <v>73.16462019356796</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4056422869967</v>
       </c>
       <c r="S13" t="n">
-        <v>101.2655660325648</v>
+        <v>224.1886268022546</v>
       </c>
       <c r="T13" t="n">
         <v>221.0034852865018</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213475239211</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23497,25 +23497,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2837689784596</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5309491188978</v>
+        <v>30.13982114485921</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4860734183779</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T14" t="n">
-        <v>120.0044832859622</v>
+        <v>216.1664576277481</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0354178143481</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.99047154786027</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.91489701287892</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>177.2891688636465</v>
@@ -23630,19 +23630,19 @@
         <v>211.8674546474282</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>244.654507244589</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>48.34348605028444</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -23667,7 +23667,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0552684420028</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>160.0852581776089</v>
@@ -23676,7 +23676,7 @@
         <v>145.4408275872831</v>
       </c>
       <c r="J16" t="n">
-        <v>24.84385850670773</v>
+        <v>74.60229908282938</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.16462019356796</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.4056422869967</v>
       </c>
       <c r="S16" t="n">
         <v>224.1886268022546</v>
@@ -23743,16 +23743,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>328.4789986087776</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2837689784596</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5309491188978</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4860734183779</v>
       </c>
       <c r="S17" t="n">
         <v>194.7247343171985</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0354178143481</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>256.007799869675</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>174.082972765835</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9746469964569</v>
@@ -23831,7 +23831,7 @@
         <v>118.2993563097647</v>
       </c>
       <c r="I18" t="n">
-        <v>80.85390945085652</v>
+        <v>47.2018530139704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.91489701287892</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.2891688636465</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8674546474282</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>90.13196320178785</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23913,7 +23913,7 @@
         <v>145.4408275872831</v>
       </c>
       <c r="J19" t="n">
-        <v>74.60229908282938</v>
+        <v>74.60229908282939</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.16462019356796</v>
+        <v>73.16462019356797</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.4056422869967</v>
       </c>
       <c r="S19" t="n">
-        <v>101.2655660325649</v>
+        <v>224.1886268022546</v>
       </c>
       <c r="T19" t="n">
-        <v>221.0034852865018</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>288.6213475239211</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3991269838773</v>
+        <v>76.00841953765973</v>
       </c>
       <c r="H20" t="n">
         <v>332.2837689784596</v>
@@ -24019,7 +24019,7 @@
         <v>104.4860734183779</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.1664576277481</v>
@@ -24028,13 +24028,13 @@
         <v>250.0354178143481</v>
       </c>
       <c r="V20" t="n">
-        <v>123.2736414599857</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>39.84875324851008</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H21" t="n">
         <v>118.2993563097647</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8674546474282</v>
+        <v>73.10940381261008</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>145.1826502507107</v>
+        <v>128.4569706246961</v>
       </c>
       <c r="E22" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>168.0552684420028</v>
@@ -24150,7 +24150,7 @@
         <v>145.4408275872831</v>
       </c>
       <c r="J22" t="n">
-        <v>74.60229908282938</v>
+        <v>74.60229908282939</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.16462019356796</v>
+        <v>73.16462019356797</v>
       </c>
       <c r="R22" t="n">
-        <v>101.2655660325649</v>
+        <v>174.4056422869967</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>224.1886268022546</v>
       </c>
       <c r="T22" t="n">
         <v>221.0034852865018</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>272.7867370935451</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
@@ -24217,16 +24217,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>278.0364870886142</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>104.4860734183779</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1664576277481</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0354178143481</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>161.8821602623728</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H24" t="n">
         <v>118.2993563097647</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>86.91489701287892</v>
       </c>
       <c r="S24" t="n">
-        <v>177.2891688636465</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>94.85402848117278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,22 +24369,22 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.0552684420028</v>
+        <v>87.86783819948494</v>
       </c>
       <c r="H25" t="n">
         <v>160.0852581776089</v>
       </c>
       <c r="I25" t="n">
-        <v>132.2216569997542</v>
+        <v>145.4408275872831</v>
       </c>
       <c r="J25" t="n">
         <v>74.60229908282939</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151.8622152599905</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>417.3991269838773</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2837689784596</v>
+        <v>13.68271791924843</v>
       </c>
       <c r="I26" t="n">
         <v>185.5309491188978</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4860734183779</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>194.7247343171985</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1664576277481</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0354178143481</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9746469964569</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.2993563097647</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8674546474282</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>228.8869675636272</v>
       </c>
       <c r="V27" t="n">
-        <v>157.8233948863085</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>86.70719434621026</v>
       </c>
       <c r="G28" t="n">
         <v>168.0552684420028</v>
@@ -24657,10 +24657,10 @@
         <v>221.0034852865018</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>288.6213475239211</v>
       </c>
       <c r="V28" t="n">
-        <v>236.4016596516847</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>290.3107070893353</v>
@@ -24682,25 +24682,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>345.3039615272176</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>302.8537613425486</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.079058409124</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2993563097647</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.91489701287892</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.2891688636465</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8674546474282</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>174.0829727658352</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>65.35092344204051</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24861,7 +24861,7 @@
         <v>145.4408275872831</v>
       </c>
       <c r="J31" t="n">
-        <v>74.60229908282938</v>
+        <v>74.60229908282939</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.16462019356796</v>
+        <v>73.16462019356797</v>
       </c>
       <c r="R31" t="n">
         <v>174.4056422869967</v>
@@ -24891,16 +24891,16 @@
         <v>224.1886268022546</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.0034852865018</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213475239211</v>
+        <v>281.6033515565701</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24919,25 +24919,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>202.984779174649</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3991269838773</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4860734183779</v>
       </c>
       <c r="S32" t="n">
-        <v>100.7729601464198</v>
+        <v>194.7247343171985</v>
       </c>
       <c r="T32" t="n">
         <v>216.1664576277481</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0354178143481</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>119.2365062196808</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2993563097647</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.91489701287892</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>32.58589031981498</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1774143996406</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>97.42949042245023</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -25098,7 +25098,7 @@
         <v>145.4408275872831</v>
       </c>
       <c r="J34" t="n">
-        <v>74.60229908282938</v>
+        <v>74.60229908282939</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.16462019356796</v>
+        <v>73.16462019356797</v>
       </c>
       <c r="R34" t="n">
         <v>174.4056422869967</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1886268022546</v>
       </c>
       <c r="T34" t="n">
         <v>221.0034852865018</v>
@@ -25134,7 +25134,7 @@
         <v>288.6213475239211</v>
       </c>
       <c r="V34" t="n">
-        <v>171.9689389300182</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25143,7 +25143,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>287.3913659388981</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>346.270296687856</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.3991269838773</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4860734183779</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1664576277481</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.0354178143481</v>
@@ -25216,13 +25216,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.9746469964569</v>
       </c>
       <c r="H36" t="n">
-        <v>6.677770203806745</v>
+        <v>118.2993563097647</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.91489701287892</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.2891688636465</v>
+        <v>19.82298006883457</v>
       </c>
       <c r="T36" t="n">
         <v>211.8674546474282</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25314,13 +25314,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>10.80461912751105</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -25332,10 +25332,10 @@
         <v>160.0852581776089</v>
       </c>
       <c r="I37" t="n">
-        <v>138.4228316199321</v>
+        <v>145.4408275872831</v>
       </c>
       <c r="J37" t="n">
-        <v>74.60229908282938</v>
+        <v>74.60229908282939</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.16462019356796</v>
+        <v>73.16462019356797</v>
       </c>
       <c r="R37" t="n">
         <v>174.4056422869967</v>
@@ -25374,7 +25374,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>371.4789120616362</v>
@@ -25405,10 +25405,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3991269838773</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2837689784596</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5309491188978</v>
@@ -25441,10 +25441,10 @@
         <v>104.4860734183779</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.48309849194234</v>
+        <v>150.8499136168381</v>
       </c>
       <c r="U38" t="n">
         <v>250.0354178143481</v>
@@ -25453,7 +25453,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>174.082972765835</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>121.03478223796</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2993563097647</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.91489701287892</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.2891688636465</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8674546474282</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.74539858025415</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25614,10 +25614,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>141.7320251657247</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3991269838773</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>104.4860734183779</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7247343171985</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1664576277481</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0354178143481</v>
+        <v>90.02719858983122</v>
       </c>
       <c r="V41" t="n">
-        <v>265.904246748594</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>184.8506298925352</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -25721,13 +25721,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9746469964569</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2993563097647</v>
       </c>
       <c r="I42" t="n">
-        <v>13.58978729276565</v>
+        <v>80.85390945085652</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>30.8118235629253</v>
+        <v>168.0552684420028</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>160.0852581776089</v>
       </c>
       <c r="I43" t="n">
         <v>145.4408275872831</v>
@@ -25836,7 +25836,7 @@
         <v>174.4056422869967</v>
       </c>
       <c r="S43" t="n">
-        <v>224.1886268022546</v>
+        <v>148.7793791538108</v>
       </c>
       <c r="T43" t="n">
         <v>221.0034852865018</v>
@@ -25851,7 +25851,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,7 +25873,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2837689784596</v>
       </c>
       <c r="I44" t="n">
-        <v>56.73150051836313</v>
+        <v>185.5309491188978</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>284.4829348604751</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>140.1656059109985</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>147.9746469964569</v>
@@ -25994,16 +25994,16 @@
         <v>86.91489701287892</v>
       </c>
       <c r="S45" t="n">
-        <v>177.2891688636465</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>19.39195909061348</v>
+        <v>211.8674546474282</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1774143996406</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>224.1886268022546</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0034852865018</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>212.2961297537366</v>
       </c>
       <c r="V46" t="n">
-        <v>236.4016596516847</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>524581.4866207277</v>
+        <v>524581.4866207276</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>524581.4866207275</v>
+        <v>524581.4866207276</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>524581.4866207277</v>
+        <v>524581.4866207275</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>524581.4866207277</v>
+        <v>524581.4866207275</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>639400.6965029333</v>
+      </c>
+      <c r="C2" t="n">
         <v>639400.6965029332</v>
-      </c>
-      <c r="C2" t="n">
-        <v>639400.696502933</v>
       </c>
       <c r="D2" t="n">
         <v>639769.9538963835</v>
@@ -26325,37 +26325,37 @@
         <v>363103.1836869819</v>
       </c>
       <c r="F2" t="n">
-        <v>363103.1836869816</v>
+        <v>363103.1836869819</v>
       </c>
       <c r="G2" t="n">
         <v>363103.1836869817</v>
       </c>
       <c r="H2" t="n">
-        <v>363103.1836869816</v>
+        <v>363103.1836869819</v>
       </c>
       <c r="I2" t="n">
         <v>363103.1836869819</v>
       </c>
       <c r="J2" t="n">
-        <v>363103.1836869819</v>
+        <v>363103.1836869817</v>
       </c>
       <c r="K2" t="n">
         <v>363103.1836869818</v>
       </c>
       <c r="L2" t="n">
-        <v>363103.1836869817</v>
+        <v>363103.183686982</v>
       </c>
       <c r="M2" t="n">
         <v>363103.1836869818</v>
       </c>
       <c r="N2" t="n">
-        <v>363103.1836869818</v>
+        <v>363103.1836869817</v>
       </c>
       <c r="O2" t="n">
-        <v>363103.1836869818</v>
+        <v>363103.1836869817</v>
       </c>
       <c r="P2" t="n">
-        <v>363103.1836869817</v>
+        <v>363103.1836869819</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>809.7012906406221</v>
+        <v>809.7012906406545</v>
       </c>
       <c r="M3" t="n">
         <v>106053.7114511834</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393214.6137123552</v>
+        <v>393214.6137123553</v>
       </c>
       <c r="C4" t="n">
-        <v>393214.6137123552</v>
+        <v>393214.6137123553</v>
       </c>
       <c r="D4" t="n">
         <v>392973.9577693814</v>
@@ -26435,7 +26435,7 @@
         <v>11550.31954406269</v>
       </c>
       <c r="H4" t="n">
-        <v>11550.31954406269</v>
+        <v>11550.3195440627</v>
       </c>
       <c r="I4" t="n">
         <v>11550.31954406269</v>
@@ -26447,7 +26447,7 @@
         <v>11550.31954406269</v>
       </c>
       <c r="L4" t="n">
-        <v>11550.31954406269</v>
+        <v>11550.3195440627</v>
       </c>
       <c r="M4" t="n">
         <v>11550.31954406269</v>
@@ -26484,10 +26484,10 @@
         <v>36078.28463492387</v>
       </c>
       <c r="G5" t="n">
+        <v>36078.28463492386</v>
+      </c>
+      <c r="H5" t="n">
         <v>36078.28463492387</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36078.28463492385</v>
       </c>
       <c r="I5" t="n">
         <v>36078.28463492386</v>
@@ -26496,13 +26496,13 @@
         <v>36078.28463492386</v>
       </c>
       <c r="K5" t="n">
-        <v>36078.28463492387</v>
+        <v>36078.28463492386</v>
       </c>
       <c r="L5" t="n">
         <v>36078.28463492387</v>
       </c>
       <c r="M5" t="n">
-        <v>36078.28463492387</v>
+        <v>36078.28463492386</v>
       </c>
       <c r="N5" t="n">
         <v>36078.28463492386</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212558.482790578</v>
+        <v>212513.8189485261</v>
       </c>
       <c r="C6" t="n">
-        <v>212558.4827905779</v>
+        <v>212513.818948526</v>
       </c>
       <c r="D6" t="n">
-        <v>211980.0988332119</v>
+        <v>211948.1680047272</v>
       </c>
       <c r="E6" t="n">
-        <v>-180460.9085034308</v>
+        <v>-190033.0727874122</v>
       </c>
       <c r="F6" t="n">
-        <v>315474.579507995</v>
+        <v>305902.4152240141</v>
       </c>
       <c r="G6" t="n">
-        <v>315474.5795079952</v>
+        <v>305902.4152240139</v>
       </c>
       <c r="H6" t="n">
-        <v>315474.579507995</v>
+        <v>305902.4152240141</v>
       </c>
       <c r="I6" t="n">
-        <v>315474.5795079953</v>
+        <v>305902.4152240141</v>
       </c>
       <c r="J6" t="n">
-        <v>315474.5795079953</v>
+        <v>305902.4152240139</v>
       </c>
       <c r="K6" t="n">
-        <v>315474.5795079952</v>
+        <v>305902.415224014</v>
       </c>
       <c r="L6" t="n">
-        <v>314664.8782173545</v>
+        <v>305092.7139333735</v>
       </c>
       <c r="M6" t="n">
-        <v>209420.8680568118</v>
+        <v>199848.7037728306</v>
       </c>
       <c r="N6" t="n">
-        <v>315474.5795079952</v>
+        <v>305902.4152240139</v>
       </c>
       <c r="O6" t="n">
-        <v>315474.5795079952</v>
+        <v>305902.4152240139</v>
       </c>
       <c r="P6" t="n">
-        <v>315474.5795079951</v>
+        <v>305902.4152240141</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>459.1340712951856</v>
       </c>
       <c r="F3" t="n">
-        <v>459.1340712951855</v>
+        <v>459.1340712951856</v>
       </c>
       <c r="G3" t="n">
         <v>459.1340712951855</v>
@@ -26807,7 +26807,7 @@
         <v>428.7691098797503</v>
       </c>
       <c r="H4" t="n">
-        <v>428.7691098797502</v>
+        <v>428.7691098797504</v>
       </c>
       <c r="I4" t="n">
         <v>428.7691098797503</v>
@@ -26816,10 +26816,10 @@
         <v>428.7691098797503</v>
       </c>
       <c r="K4" t="n">
+        <v>428.7691098797503</v>
+      </c>
+      <c r="L4" t="n">
         <v>428.7691098797504</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.7691098797503</v>
       </c>
       <c r="M4" t="n">
         <v>428.7691098797503</v>
@@ -27020,7 +27020,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>425.569860239737</v>
+        <v>425.5698602397368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.199249640013363</v>
+        <v>3.199249640013491</v>
       </c>
       <c r="M4" t="n">
-        <v>425.569860239737</v>
+        <v>425.5698602397369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>425.569860239737</v>
+        <v>425.5698602397368</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.3129944763978</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -27918,7 +27918,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>359.9126297478971</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
         <v>382.2855674184499</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.9325953147419</v>
       </c>
       <c r="C9" t="n">
-        <v>184.700252441442</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9730654365651</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>168.6283221997862</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27976,10 +27976,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -27988,7 +27988,7 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.0431365621689</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28000,7 +28000,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.1850364940121</v>
       </c>
     </row>
     <row r="10">
@@ -32010,7 +32010,7 @@
         <v>324.1002030002442</v>
       </c>
       <c r="N14" t="n">
-        <v>329.3444831211184</v>
+        <v>329.3444831211185</v>
       </c>
       <c r="O14" t="n">
         <v>310.9906563012531</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9875713986349275</v>
+        <v>0.9875713986349276</v>
       </c>
       <c r="H15" t="n">
         <v>9.537860613132064</v>
@@ -32077,13 +32077,13 @@
         <v>34.00190999686045</v>
       </c>
       <c r="J15" t="n">
-        <v>93.30383990348673</v>
+        <v>93.30383990348675</v>
       </c>
       <c r="K15" t="n">
         <v>159.4711236120269</v>
       </c>
       <c r="L15" t="n">
-        <v>214.42860565536</v>
+        <v>214.4286056553601</v>
       </c>
       <c r="M15" t="n">
         <v>250.2280688558761</v>
@@ -32098,19 +32098,19 @@
         <v>188.5828226042433</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0626227450479</v>
+        <v>126.062622745048</v>
       </c>
       <c r="R15" t="n">
-        <v>61.31605578542122</v>
+        <v>61.31605578542123</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34370558429348</v>
+        <v>18.34370558429349</v>
       </c>
       <c r="T15" t="n">
         <v>3.980605769059202</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06497180254177157</v>
+        <v>0.06497180254177158</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,7 +32150,7 @@
         <v>0.8279466859421378</v>
       </c>
       <c r="H16" t="n">
-        <v>7.361198716831012</v>
+        <v>7.361198716831013</v>
       </c>
       <c r="I16" t="n">
         <v>24.8986148826963</v>
@@ -32159,7 +32159,7 @@
         <v>58.53583069610914</v>
       </c>
       <c r="K16" t="n">
-        <v>96.19235133036835</v>
+        <v>96.19235133036837</v>
       </c>
       <c r="L16" t="n">
         <v>123.0930918354339</v>
@@ -32186,7 +32186,7 @@
         <v>14.42885269955525</v>
       </c>
       <c r="T16" t="n">
-        <v>3.537590385389133</v>
+        <v>3.537590385389134</v>
       </c>
       <c r="U16" t="n">
         <v>0.04516072832411666</v>
@@ -32232,13 +32232,13 @@
         <v>18.90294194030881</v>
       </c>
       <c r="I17" t="n">
-        <v>71.15885943158852</v>
+        <v>71.15885943158851</v>
       </c>
       <c r="J17" t="n">
         <v>156.657006567195</v>
       </c>
       <c r="K17" t="n">
-        <v>234.7882437045828</v>
+        <v>234.7882437045827</v>
       </c>
       <c r="L17" t="n">
         <v>291.2755777122211</v>
@@ -32247,25 +32247,25 @@
         <v>324.1002030002442</v>
       </c>
       <c r="N17" t="n">
-        <v>329.3444831211184</v>
+        <v>329.3444831211183</v>
       </c>
       <c r="O17" t="n">
-        <v>310.9906563012531</v>
+        <v>310.990656301253</v>
       </c>
       <c r="P17" t="n">
         <v>265.4233301299972</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.321867101821</v>
+        <v>199.3218671018209</v>
       </c>
       <c r="R17" t="n">
         <v>115.9440426371707</v>
       </c>
       <c r="S17" t="n">
-        <v>42.06037246086048</v>
+        <v>42.06037246086047</v>
       </c>
       <c r="T17" t="n">
-        <v>8.079836772239897</v>
+        <v>8.079836772239895</v>
       </c>
       <c r="U17" t="n">
         <v>0.147661208858753</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9875713986349275</v>
+        <v>0.9875713986349273</v>
       </c>
       <c r="H18" t="n">
-        <v>9.537860613132064</v>
+        <v>9.537860613132063</v>
       </c>
       <c r="I18" t="n">
-        <v>34.00190999686045</v>
+        <v>34.00190999686044</v>
       </c>
       <c r="J18" t="n">
-        <v>93.30383990348673</v>
+        <v>93.30383990348672</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4711236120269</v>
+        <v>159.4711236120268</v>
       </c>
       <c r="L18" t="n">
         <v>214.42860565536</v>
@@ -32326,10 +32326,10 @@
         <v>250.2280688558761</v>
       </c>
       <c r="N18" t="n">
-        <v>256.8508612616341</v>
+        <v>256.850861261634</v>
       </c>
       <c r="O18" t="n">
-        <v>234.9683581655654</v>
+        <v>234.9683581655653</v>
       </c>
       <c r="P18" t="n">
         <v>188.5828226042433</v>
@@ -32338,16 +32338,16 @@
         <v>126.0626227450479</v>
       </c>
       <c r="R18" t="n">
-        <v>61.31605578542122</v>
+        <v>61.31605578542121</v>
       </c>
       <c r="S18" t="n">
         <v>18.34370558429348</v>
       </c>
       <c r="T18" t="n">
-        <v>3.980605769059202</v>
+        <v>3.980605769059201</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06497180254177157</v>
+        <v>0.06497180254177155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8279466859421378</v>
+        <v>0.8279466859421377</v>
       </c>
       <c r="H19" t="n">
-        <v>7.361198716831012</v>
+        <v>7.361198716831011</v>
       </c>
       <c r="I19" t="n">
-        <v>24.8986148826963</v>
+        <v>24.89861488269629</v>
       </c>
       <c r="J19" t="n">
-        <v>58.53583069610914</v>
+        <v>58.53583069610913</v>
       </c>
       <c r="K19" t="n">
-        <v>96.19235133036835</v>
+        <v>96.19235133036834</v>
       </c>
       <c r="L19" t="n">
-        <v>123.0930918354339</v>
+        <v>123.0930918354338</v>
       </c>
       <c r="M19" t="n">
         <v>129.7844064154571</v>
@@ -32414,10 +32414,10 @@
         <v>100.1363882706745</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.32924476557302</v>
+        <v>69.32924476557301</v>
       </c>
       <c r="R19" t="n">
-        <v>37.22749371518012</v>
+        <v>37.22749371518011</v>
       </c>
       <c r="S19" t="n">
         <v>14.42885269955525</v>
@@ -32426,7 +32426,7 @@
         <v>3.537590385389133</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04516072832411666</v>
+        <v>0.04516072832411665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,13 +32469,13 @@
         <v>18.90294194030881</v>
       </c>
       <c r="I20" t="n">
-        <v>71.15885943158852</v>
+        <v>71.15885943158851</v>
       </c>
       <c r="J20" t="n">
         <v>156.657006567195</v>
       </c>
       <c r="K20" t="n">
-        <v>234.7882437045828</v>
+        <v>234.7882437045827</v>
       </c>
       <c r="L20" t="n">
         <v>291.2755777122211</v>
@@ -32484,25 +32484,25 @@
         <v>324.1002030002442</v>
       </c>
       <c r="N20" t="n">
-        <v>329.3444831211184</v>
+        <v>329.3444831211183</v>
       </c>
       <c r="O20" t="n">
-        <v>310.9906563012531</v>
+        <v>310.990656301253</v>
       </c>
       <c r="P20" t="n">
         <v>265.4233301299972</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.321867101821</v>
+        <v>199.3218671018209</v>
       </c>
       <c r="R20" t="n">
         <v>115.9440426371707</v>
       </c>
       <c r="S20" t="n">
-        <v>42.06037246086048</v>
+        <v>42.06037246086047</v>
       </c>
       <c r="T20" t="n">
-        <v>8.079836772239897</v>
+        <v>8.079836772239895</v>
       </c>
       <c r="U20" t="n">
         <v>0.147661208858753</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9875713986349275</v>
+        <v>0.9875713986349273</v>
       </c>
       <c r="H21" t="n">
-        <v>9.537860613132064</v>
+        <v>9.537860613132063</v>
       </c>
       <c r="I21" t="n">
-        <v>34.00190999686045</v>
+        <v>34.00190999686044</v>
       </c>
       <c r="J21" t="n">
-        <v>93.30383990348673</v>
+        <v>93.30383990348672</v>
       </c>
       <c r="K21" t="n">
-        <v>159.4711236120269</v>
+        <v>159.4711236120268</v>
       </c>
       <c r="L21" t="n">
         <v>214.42860565536</v>
@@ -32563,10 +32563,10 @@
         <v>250.2280688558761</v>
       </c>
       <c r="N21" t="n">
-        <v>256.8508612616341</v>
+        <v>256.850861261634</v>
       </c>
       <c r="O21" t="n">
-        <v>234.9683581655654</v>
+        <v>234.9683581655653</v>
       </c>
       <c r="P21" t="n">
         <v>188.5828226042433</v>
@@ -32575,16 +32575,16 @@
         <v>126.0626227450479</v>
       </c>
       <c r="R21" t="n">
-        <v>61.31605578542122</v>
+        <v>61.31605578542121</v>
       </c>
       <c r="S21" t="n">
         <v>18.34370558429348</v>
       </c>
       <c r="T21" t="n">
-        <v>3.980605769059202</v>
+        <v>3.980605769059201</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06497180254177157</v>
+        <v>0.06497180254177155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8279466859421378</v>
+        <v>0.8279466859421377</v>
       </c>
       <c r="H22" t="n">
-        <v>7.361198716831012</v>
+        <v>7.361198716831011</v>
       </c>
       <c r="I22" t="n">
-        <v>24.8986148826963</v>
+        <v>24.89861488269629</v>
       </c>
       <c r="J22" t="n">
-        <v>58.53583069610914</v>
+        <v>58.53583069610913</v>
       </c>
       <c r="K22" t="n">
-        <v>96.19235133036835</v>
+        <v>96.19235133036834</v>
       </c>
       <c r="L22" t="n">
-        <v>123.0930918354339</v>
+        <v>123.0930918354338</v>
       </c>
       <c r="M22" t="n">
         <v>129.7844064154571</v>
@@ -32651,10 +32651,10 @@
         <v>100.1363882706745</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.32924476557302</v>
+        <v>69.32924476557301</v>
       </c>
       <c r="R22" t="n">
-        <v>37.22749371518012</v>
+        <v>37.22749371518011</v>
       </c>
       <c r="S22" t="n">
         <v>14.42885269955525</v>
@@ -32663,7 +32663,7 @@
         <v>3.537590385389133</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04516072832411666</v>
+        <v>0.04516072832411665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>18.90294194030881</v>
       </c>
       <c r="I29" t="n">
-        <v>71.15885943158852</v>
+        <v>71.15885943158851</v>
       </c>
       <c r="J29" t="n">
         <v>156.657006567195</v>
       </c>
       <c r="K29" t="n">
-        <v>234.7882437045828</v>
+        <v>234.7882437045827</v>
       </c>
       <c r="L29" t="n">
         <v>291.2755777122211</v>
@@ -33195,25 +33195,25 @@
         <v>324.1002030002442</v>
       </c>
       <c r="N29" t="n">
-        <v>329.3444831211184</v>
+        <v>329.3444831211183</v>
       </c>
       <c r="O29" t="n">
-        <v>310.9906563012531</v>
+        <v>310.990656301253</v>
       </c>
       <c r="P29" t="n">
         <v>265.4233301299972</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.321867101821</v>
+        <v>199.3218671018209</v>
       </c>
       <c r="R29" t="n">
         <v>115.9440426371707</v>
       </c>
       <c r="S29" t="n">
-        <v>42.06037246086048</v>
+        <v>42.06037246086047</v>
       </c>
       <c r="T29" t="n">
-        <v>8.079836772239897</v>
+        <v>8.079836772239895</v>
       </c>
       <c r="U29" t="n">
         <v>0.147661208858753</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9875713986349275</v>
+        <v>0.9875713986349273</v>
       </c>
       <c r="H30" t="n">
-        <v>9.537860613132064</v>
+        <v>9.537860613132063</v>
       </c>
       <c r="I30" t="n">
-        <v>34.00190999686045</v>
+        <v>34.00190999686044</v>
       </c>
       <c r="J30" t="n">
-        <v>93.30383990348673</v>
+        <v>93.30383990348672</v>
       </c>
       <c r="K30" t="n">
-        <v>159.4711236120269</v>
+        <v>159.4711236120268</v>
       </c>
       <c r="L30" t="n">
         <v>214.42860565536</v>
@@ -33274,10 +33274,10 @@
         <v>250.2280688558761</v>
       </c>
       <c r="N30" t="n">
-        <v>256.8508612616341</v>
+        <v>256.850861261634</v>
       </c>
       <c r="O30" t="n">
-        <v>234.9683581655654</v>
+        <v>234.9683581655653</v>
       </c>
       <c r="P30" t="n">
         <v>188.5828226042433</v>
@@ -33286,16 +33286,16 @@
         <v>126.0626227450479</v>
       </c>
       <c r="R30" t="n">
-        <v>61.31605578542122</v>
+        <v>61.31605578542121</v>
       </c>
       <c r="S30" t="n">
         <v>18.34370558429348</v>
       </c>
       <c r="T30" t="n">
-        <v>3.980605769059202</v>
+        <v>3.980605769059201</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06497180254177157</v>
+        <v>0.06497180254177155</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8279466859421378</v>
+        <v>0.8279466859421377</v>
       </c>
       <c r="H31" t="n">
-        <v>7.361198716831012</v>
+        <v>7.361198716831011</v>
       </c>
       <c r="I31" t="n">
-        <v>24.8986148826963</v>
+        <v>24.89861488269629</v>
       </c>
       <c r="J31" t="n">
-        <v>58.53583069610914</v>
+        <v>58.53583069610913</v>
       </c>
       <c r="K31" t="n">
-        <v>96.19235133036835</v>
+        <v>96.19235133036834</v>
       </c>
       <c r="L31" t="n">
-        <v>123.0930918354339</v>
+        <v>123.0930918354338</v>
       </c>
       <c r="M31" t="n">
         <v>129.7844064154571</v>
@@ -33362,10 +33362,10 @@
         <v>100.1363882706745</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.32924476557302</v>
+        <v>69.32924476557301</v>
       </c>
       <c r="R31" t="n">
-        <v>37.22749371518012</v>
+        <v>37.22749371518011</v>
       </c>
       <c r="S31" t="n">
         <v>14.42885269955525</v>
@@ -33374,7 +33374,7 @@
         <v>3.537590385389133</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04516072832411666</v>
+        <v>0.04516072832411665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>18.90294194030881</v>
       </c>
       <c r="I32" t="n">
-        <v>71.15885943158852</v>
+        <v>71.15885943158851</v>
       </c>
       <c r="J32" t="n">
         <v>156.657006567195</v>
       </c>
       <c r="K32" t="n">
-        <v>234.7882437045828</v>
+        <v>234.7882437045827</v>
       </c>
       <c r="L32" t="n">
         <v>291.2755777122211</v>
@@ -33432,25 +33432,25 @@
         <v>324.1002030002442</v>
       </c>
       <c r="N32" t="n">
-        <v>329.3444831211184</v>
+        <v>329.3444831211183</v>
       </c>
       <c r="O32" t="n">
-        <v>310.9906563012531</v>
+        <v>310.990656301253</v>
       </c>
       <c r="P32" t="n">
         <v>265.4233301299972</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.321867101821</v>
+        <v>199.3218671018209</v>
       </c>
       <c r="R32" t="n">
         <v>115.9440426371707</v>
       </c>
       <c r="S32" t="n">
-        <v>42.06037246086048</v>
+        <v>42.06037246086047</v>
       </c>
       <c r="T32" t="n">
-        <v>8.079836772239897</v>
+        <v>8.079836772239895</v>
       </c>
       <c r="U32" t="n">
         <v>0.147661208858753</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9875713986349275</v>
+        <v>0.9875713986349273</v>
       </c>
       <c r="H33" t="n">
-        <v>9.537860613132064</v>
+        <v>9.537860613132063</v>
       </c>
       <c r="I33" t="n">
-        <v>34.00190999686045</v>
+        <v>34.00190999686044</v>
       </c>
       <c r="J33" t="n">
-        <v>93.30383990348673</v>
+        <v>93.30383990348672</v>
       </c>
       <c r="K33" t="n">
-        <v>159.4711236120269</v>
+        <v>159.4711236120268</v>
       </c>
       <c r="L33" t="n">
         <v>214.42860565536</v>
@@ -33511,10 +33511,10 @@
         <v>250.2280688558761</v>
       </c>
       <c r="N33" t="n">
-        <v>256.8508612616341</v>
+        <v>256.850861261634</v>
       </c>
       <c r="O33" t="n">
-        <v>234.9683581655654</v>
+        <v>234.9683581655653</v>
       </c>
       <c r="P33" t="n">
         <v>188.5828226042433</v>
@@ -33523,16 +33523,16 @@
         <v>126.0626227450479</v>
       </c>
       <c r="R33" t="n">
-        <v>61.31605578542122</v>
+        <v>61.31605578542121</v>
       </c>
       <c r="S33" t="n">
         <v>18.34370558429348</v>
       </c>
       <c r="T33" t="n">
-        <v>3.980605769059202</v>
+        <v>3.980605769059201</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06497180254177157</v>
+        <v>0.06497180254177155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8279466859421378</v>
+        <v>0.8279466859421377</v>
       </c>
       <c r="H34" t="n">
-        <v>7.361198716831012</v>
+        <v>7.361198716831011</v>
       </c>
       <c r="I34" t="n">
-        <v>24.8986148826963</v>
+        <v>24.89861488269629</v>
       </c>
       <c r="J34" t="n">
-        <v>58.53583069610914</v>
+        <v>58.53583069610913</v>
       </c>
       <c r="K34" t="n">
-        <v>96.19235133036835</v>
+        <v>96.19235133036834</v>
       </c>
       <c r="L34" t="n">
-        <v>123.0930918354339</v>
+        <v>123.0930918354338</v>
       </c>
       <c r="M34" t="n">
         <v>129.7844064154571</v>
@@ -33599,10 +33599,10 @@
         <v>100.1363882706745</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.32924476557302</v>
+        <v>69.32924476557301</v>
       </c>
       <c r="R34" t="n">
-        <v>37.22749371518012</v>
+        <v>37.22749371518011</v>
       </c>
       <c r="S34" t="n">
         <v>14.42885269955525</v>
@@ -33611,7 +33611,7 @@
         <v>3.537590385389133</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04516072832411666</v>
+        <v>0.04516072832411665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>18.90294194030881</v>
       </c>
       <c r="I35" t="n">
-        <v>71.15885943158852</v>
+        <v>71.15885943158851</v>
       </c>
       <c r="J35" t="n">
         <v>156.657006567195</v>
       </c>
       <c r="K35" t="n">
-        <v>234.7882437045828</v>
+        <v>234.7882437045827</v>
       </c>
       <c r="L35" t="n">
         <v>291.2755777122211</v>
@@ -33669,25 +33669,25 @@
         <v>324.1002030002442</v>
       </c>
       <c r="N35" t="n">
-        <v>329.3444831211184</v>
+        <v>329.3444831211183</v>
       </c>
       <c r="O35" t="n">
-        <v>310.9906563012531</v>
+        <v>310.990656301253</v>
       </c>
       <c r="P35" t="n">
         <v>265.4233301299972</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.321867101821</v>
+        <v>199.3218671018209</v>
       </c>
       <c r="R35" t="n">
         <v>115.9440426371707</v>
       </c>
       <c r="S35" t="n">
-        <v>42.06037246086048</v>
+        <v>42.06037246086047</v>
       </c>
       <c r="T35" t="n">
-        <v>8.079836772239897</v>
+        <v>8.079836772239895</v>
       </c>
       <c r="U35" t="n">
         <v>0.147661208858753</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9875713986349275</v>
+        <v>0.9875713986349273</v>
       </c>
       <c r="H36" t="n">
-        <v>9.537860613132064</v>
+        <v>9.537860613132063</v>
       </c>
       <c r="I36" t="n">
-        <v>34.00190999686045</v>
+        <v>34.00190999686044</v>
       </c>
       <c r="J36" t="n">
-        <v>93.30383990348673</v>
+        <v>93.30383990348672</v>
       </c>
       <c r="K36" t="n">
-        <v>159.4711236120269</v>
+        <v>159.4711236120268</v>
       </c>
       <c r="L36" t="n">
         <v>214.42860565536</v>
@@ -33748,10 +33748,10 @@
         <v>250.2280688558761</v>
       </c>
       <c r="N36" t="n">
-        <v>256.8508612616341</v>
+        <v>256.850861261634</v>
       </c>
       <c r="O36" t="n">
-        <v>234.9683581655654</v>
+        <v>234.9683581655653</v>
       </c>
       <c r="P36" t="n">
         <v>188.5828226042433</v>
@@ -33760,16 +33760,16 @@
         <v>126.0626227450479</v>
       </c>
       <c r="R36" t="n">
-        <v>61.31605578542122</v>
+        <v>61.31605578542121</v>
       </c>
       <c r="S36" t="n">
         <v>18.34370558429348</v>
       </c>
       <c r="T36" t="n">
-        <v>3.980605769059202</v>
+        <v>3.980605769059201</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06497180254177157</v>
+        <v>0.06497180254177155</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8279466859421378</v>
+        <v>0.8279466859421377</v>
       </c>
       <c r="H37" t="n">
-        <v>7.361198716831012</v>
+        <v>7.361198716831011</v>
       </c>
       <c r="I37" t="n">
-        <v>24.8986148826963</v>
+        <v>24.89861488269629</v>
       </c>
       <c r="J37" t="n">
-        <v>58.53583069610914</v>
+        <v>58.53583069610913</v>
       </c>
       <c r="K37" t="n">
-        <v>96.19235133036835</v>
+        <v>96.19235133036834</v>
       </c>
       <c r="L37" t="n">
-        <v>123.0930918354339</v>
+        <v>123.0930918354338</v>
       </c>
       <c r="M37" t="n">
         <v>129.7844064154571</v>
@@ -33836,10 +33836,10 @@
         <v>100.1363882706745</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.32924476557302</v>
+        <v>69.32924476557301</v>
       </c>
       <c r="R37" t="n">
-        <v>37.22749371518012</v>
+        <v>37.22749371518011</v>
       </c>
       <c r="S37" t="n">
         <v>14.42885269955525</v>
@@ -33848,7 +33848,7 @@
         <v>3.537590385389133</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04516072832411666</v>
+        <v>0.04516072832411665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35205,7 +35205,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -35214,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="O9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>45.35560967614155</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3248527758212</v>
+        <v>176.3248527758213</v>
       </c>
       <c r="L14" t="n">
-        <v>274.2850184775285</v>
+        <v>274.2850184775286</v>
       </c>
       <c r="M14" t="n">
         <v>334.362568166327</v>
       </c>
       <c r="N14" t="n">
-        <v>332.8613525522432</v>
+        <v>332.8613525522433</v>
       </c>
       <c r="O14" t="n">
         <v>277.0293558250543</v>
@@ -35667,7 +35667,7 @@
         <v>191.8446382036891</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.68903940261083</v>
+        <v>65.68903940261086</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>162.6780416474599</v>
+        <v>78.50472665115323</v>
       </c>
       <c r="L15" t="n">
         <v>285.6968060805551</v>
       </c>
       <c r="M15" t="n">
-        <v>294.4281137847072</v>
+        <v>378.6014287810137</v>
       </c>
       <c r="N15" t="n">
         <v>407.2278310945901</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.96613695365005</v>
+        <v>7.966136953650064</v>
       </c>
       <c r="L16" t="n">
-        <v>63.8173933712504</v>
+        <v>63.81739337125042</v>
       </c>
       <c r="M16" t="n">
-        <v>75.96921026869971</v>
+        <v>75.96921026869974</v>
       </c>
       <c r="N16" t="n">
-        <v>82.25993958093596</v>
+        <v>82.25993958093599</v>
       </c>
       <c r="O16" t="n">
-        <v>53.76052355773787</v>
+        <v>53.76052355773788</v>
       </c>
       <c r="P16" t="n">
-        <v>19.59247635821306</v>
+        <v>19.59247635821308</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.35560967614155</v>
+        <v>45.35560967614153</v>
       </c>
       <c r="K17" t="n">
         <v>176.3248527758212</v>
@@ -35892,19 +35892,19 @@
         <v>274.2850184775285</v>
       </c>
       <c r="M17" t="n">
-        <v>334.362568166327</v>
+        <v>334.3625681663269</v>
       </c>
       <c r="N17" t="n">
-        <v>332.8613525522432</v>
+        <v>332.8613525522431</v>
       </c>
       <c r="O17" t="n">
-        <v>277.0293558250543</v>
+        <v>277.0293558250542</v>
       </c>
       <c r="P17" t="n">
         <v>191.8446382036891</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.68903940261083</v>
+        <v>65.6890394026108</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.26892627073831</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>162.6780416474599</v>
+        <v>162.6780416474598</v>
       </c>
       <c r="L18" t="n">
-        <v>181.2545648135097</v>
+        <v>285.696806080555</v>
       </c>
       <c r="M18" t="n">
         <v>378.6014287810137</v>
       </c>
       <c r="N18" t="n">
-        <v>407.2278310945901</v>
+        <v>407.22783109459</v>
       </c>
       <c r="O18" t="n">
         <v>316.2237228346639</v>
       </c>
       <c r="P18" t="n">
-        <v>231.4979196374397</v>
+        <v>147.3246046411328</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.96613695365005</v>
+        <v>7.966136953650036</v>
       </c>
       <c r="L19" t="n">
-        <v>63.8173933712504</v>
+        <v>63.81739337125039</v>
       </c>
       <c r="M19" t="n">
         <v>75.96921026869971</v>
       </c>
       <c r="N19" t="n">
-        <v>82.25993958093596</v>
+        <v>82.25993958093595</v>
       </c>
       <c r="O19" t="n">
-        <v>53.76052355773787</v>
+        <v>53.76052355773786</v>
       </c>
       <c r="P19" t="n">
-        <v>19.59247635821306</v>
+        <v>19.59247635821305</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.35560967614155</v>
+        <v>45.35560967614153</v>
       </c>
       <c r="K20" t="n">
         <v>176.3248527758212</v>
@@ -36129,19 +36129,19 @@
         <v>274.2850184775285</v>
       </c>
       <c r="M20" t="n">
-        <v>334.362568166327</v>
+        <v>334.3625681663269</v>
       </c>
       <c r="N20" t="n">
-        <v>332.8613525522432</v>
+        <v>332.8613525522431</v>
       </c>
       <c r="O20" t="n">
-        <v>277.0293558250543</v>
+        <v>277.0293558250542</v>
       </c>
       <c r="P20" t="n">
         <v>191.8446382036891</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.68903940261083</v>
+        <v>65.6890394026108</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.26892627073831</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>58.23580038041408</v>
+        <v>162.6780416474598</v>
       </c>
       <c r="L21" t="n">
-        <v>285.6968060805551</v>
+        <v>285.696806080555</v>
       </c>
       <c r="M21" t="n">
         <v>378.6014287810137</v>
       </c>
       <c r="N21" t="n">
-        <v>407.2278310945901</v>
+        <v>407.22783109459</v>
       </c>
       <c r="O21" t="n">
         <v>316.2237228346639</v>
       </c>
       <c r="P21" t="n">
-        <v>231.4979196374397</v>
+        <v>147.3246046411332</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.96613695365005</v>
+        <v>7.966136953650036</v>
       </c>
       <c r="L22" t="n">
-        <v>63.8173933712504</v>
+        <v>63.81739337125039</v>
       </c>
       <c r="M22" t="n">
         <v>75.96921026869971</v>
       </c>
       <c r="N22" t="n">
-        <v>82.25993958093596</v>
+        <v>82.25993958093595</v>
       </c>
       <c r="O22" t="n">
-        <v>53.76052355773787</v>
+        <v>53.76052355773786</v>
       </c>
       <c r="P22" t="n">
-        <v>19.59247635821306</v>
+        <v>19.59247635821305</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.26892627073829</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.6780416474598</v>
+        <v>78.50472665115308</v>
       </c>
       <c r="L24" t="n">
         <v>285.696806080555</v>
@@ -36448,7 +36448,7 @@
         <v>378.6014287810137</v>
       </c>
       <c r="N24" t="n">
-        <v>302.785589827545</v>
+        <v>407.22783109459</v>
       </c>
       <c r="O24" t="n">
         <v>316.2237228346639</v>
@@ -36685,7 +36685,7 @@
         <v>378.6014287810137</v>
       </c>
       <c r="N27" t="n">
-        <v>302.785589827545</v>
+        <v>211.3706490146131</v>
       </c>
       <c r="O27" t="n">
         <v>316.2237228346639</v>
@@ -36694,7 +36694,7 @@
         <v>231.4979196374397</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>91.41494081293187</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.35560967614155</v>
+        <v>45.35560967614153</v>
       </c>
       <c r="K29" t="n">
         <v>176.3248527758212</v>
@@ -36840,19 +36840,19 @@
         <v>274.2850184775285</v>
       </c>
       <c r="M29" t="n">
-        <v>334.362568166327</v>
+        <v>334.3625681663269</v>
       </c>
       <c r="N29" t="n">
-        <v>332.8613525522432</v>
+        <v>332.8613525522431</v>
       </c>
       <c r="O29" t="n">
-        <v>277.0293558250543</v>
+        <v>277.0293558250542</v>
       </c>
       <c r="P29" t="n">
         <v>191.8446382036891</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.68903940261083</v>
+        <v>65.6890394026108</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>78.50472665115331</v>
+        <v>162.6780416474598</v>
       </c>
       <c r="L30" t="n">
-        <v>285.6968060805551</v>
+        <v>285.696806080555</v>
       </c>
       <c r="M30" t="n">
         <v>378.6014287810137</v>
       </c>
       <c r="N30" t="n">
-        <v>407.2278310945901</v>
+        <v>407.22783109459</v>
       </c>
       <c r="O30" t="n">
         <v>316.2237228346639</v>
       </c>
       <c r="P30" t="n">
-        <v>231.4979196374397</v>
+        <v>147.3246046411328</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.96613695365005</v>
+        <v>7.966136953650036</v>
       </c>
       <c r="L31" t="n">
-        <v>63.8173933712504</v>
+        <v>63.81739337125039</v>
       </c>
       <c r="M31" t="n">
         <v>75.96921026869971</v>
       </c>
       <c r="N31" t="n">
-        <v>82.25993958093596</v>
+        <v>82.25993958093595</v>
       </c>
       <c r="O31" t="n">
-        <v>53.76052355773787</v>
+        <v>53.76052355773786</v>
       </c>
       <c r="P31" t="n">
-        <v>19.59247635821306</v>
+        <v>19.59247635821305</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.35560967614155</v>
+        <v>45.35560967614153</v>
       </c>
       <c r="K32" t="n">
         <v>176.3248527758212</v>
@@ -37077,19 +37077,19 @@
         <v>274.2850184775285</v>
       </c>
       <c r="M32" t="n">
-        <v>334.362568166327</v>
+        <v>334.3625681663269</v>
       </c>
       <c r="N32" t="n">
-        <v>332.8613525522432</v>
+        <v>332.8613525522431</v>
       </c>
       <c r="O32" t="n">
-        <v>277.0293558250543</v>
+        <v>277.0293558250542</v>
       </c>
       <c r="P32" t="n">
         <v>191.8446382036891</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.68903940261083</v>
+        <v>65.6890394026108</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.26892627073831</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.23580038041455</v>
+        <v>78.50472665115353</v>
       </c>
       <c r="L33" t="n">
-        <v>285.6968060805551</v>
+        <v>285.696806080555</v>
       </c>
       <c r="M33" t="n">
         <v>378.6014287810137</v>
       </c>
       <c r="N33" t="n">
-        <v>407.2278310945901</v>
+        <v>407.22783109459</v>
       </c>
       <c r="O33" t="n">
         <v>316.2237228346639</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.96613695365005</v>
+        <v>7.966136953650036</v>
       </c>
       <c r="L34" t="n">
-        <v>63.8173933712504</v>
+        <v>63.81739337125039</v>
       </c>
       <c r="M34" t="n">
         <v>75.96921026869971</v>
       </c>
       <c r="N34" t="n">
-        <v>82.25993958093596</v>
+        <v>82.25993958093595</v>
       </c>
       <c r="O34" t="n">
-        <v>53.76052355773787</v>
+        <v>53.76052355773786</v>
       </c>
       <c r="P34" t="n">
-        <v>19.59247635821306</v>
+        <v>19.59247635821305</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.35560967614155</v>
+        <v>45.35560967614153</v>
       </c>
       <c r="K35" t="n">
         <v>176.3248527758212</v>
@@ -37314,19 +37314,19 @@
         <v>274.2850184775285</v>
       </c>
       <c r="M35" t="n">
-        <v>334.362568166327</v>
+        <v>334.3625681663269</v>
       </c>
       <c r="N35" t="n">
-        <v>332.8613525522432</v>
+        <v>332.8613525522431</v>
       </c>
       <c r="O35" t="n">
-        <v>277.0293558250543</v>
+        <v>277.0293558250542</v>
       </c>
       <c r="P35" t="n">
         <v>191.8446382036891</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.68903940261083</v>
+        <v>65.6890394026108</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.26892627073831</v>
+        <v>20.26892627073829</v>
       </c>
       <c r="K36" t="n">
-        <v>58.23580038041455</v>
+        <v>162.6780416474598</v>
       </c>
       <c r="L36" t="n">
-        <v>285.6968060805551</v>
+        <v>285.696806080555</v>
       </c>
       <c r="M36" t="n">
         <v>378.6014287810137</v>
       </c>
       <c r="N36" t="n">
-        <v>407.2278310945901</v>
+        <v>211.3706490146131</v>
       </c>
       <c r="O36" t="n">
         <v>316.2237228346639</v>
@@ -37405,7 +37405,7 @@
         <v>231.4979196374397</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.41494081293187</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.96613695365005</v>
+        <v>7.966136953650036</v>
       </c>
       <c r="L37" t="n">
-        <v>63.8173933712504</v>
+        <v>63.81739337125039</v>
       </c>
       <c r="M37" t="n">
         <v>75.96921026869971</v>
       </c>
       <c r="N37" t="n">
-        <v>82.25993958093596</v>
+        <v>82.25993958093595</v>
       </c>
       <c r="O37" t="n">
-        <v>53.76052355773787</v>
+        <v>53.76052355773786</v>
       </c>
       <c r="P37" t="n">
-        <v>19.59247635821306</v>
+        <v>19.59247635821305</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>162.6780416474598</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1085502713163</v>
+        <v>285.696806080555</v>
       </c>
       <c r="M39" t="n">
         <v>378.6014287810137</v>
@@ -37639,10 +37639,10 @@
         <v>316.2237228346639</v>
       </c>
       <c r="P39" t="n">
-        <v>231.4979196374397</v>
+        <v>147.3246046411328</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.41494081293187</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>191.8446382036891</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.6890394026108</v>
+        <v>65.68903940261094</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>20.26892627073829</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.6780416474598</v>
       </c>
       <c r="L42" t="n">
         <v>285.696806080555</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6014287810137</v>
+        <v>182.7442467010367</v>
       </c>
       <c r="N42" t="n">
         <v>407.22783109459</v>
@@ -37879,7 +37879,7 @@
         <v>231.4979196374397</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.2358003804148</v>
+        <v>91.41494081293187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>45.35560967614153</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3248527758215</v>
+        <v>176.3248527758212</v>
       </c>
       <c r="L44" t="n">
         <v>274.2850184775285</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.26892627073829</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>58.23580038041479</v>
+        <v>162.6780416474598</v>
       </c>
       <c r="L45" t="n">
         <v>285.696806080555</v>
       </c>
       <c r="M45" t="n">
-        <v>378.6014287810137</v>
+        <v>203.0131729717749</v>
       </c>
       <c r="N45" t="n">
         <v>407.22783109459</v>
@@ -38116,7 +38116,7 @@
         <v>231.4979196374397</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.41494081293187</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
